--- a/public/preprocessing/@saiful_mujani.xlsx
+++ b/public/preprocessing/@saiful_mujani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17544</v>
+        <v>28312</v>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>alfatihah buat almarhum kang jalaluddin rahmat intelketual yang kami banyak ikuti pemikirannya terutama ketika mah</t>
+          <t>pastikan pemilu kita berjalan dengan baik untuk fondasi kita melanjutkan negara yang damai bila pemilu gagal inte</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['alfatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'mah']</t>
+          <t>['pastikan', 'pemilu', 'kita', 'berjalan', 'dengan', 'baik', 'untuk', 'fondasi', 'kita', 'melanjutkan', 'negara', 'yang', 'damai', 'bila', 'pemilu', 'gagal', 'inte']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['pastikan', 'pemilihan, umum', 'kita', 'berjalan', 'dengan', 'baik', 'untuk', 'fondasi', 'kita', 'melanjutkan', 'negara', 'yang', 'damai', 'bila', 'pemilihan, umum', 'gagal', 'inte']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['alfatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikuti', 'pemikirannya', 'mah']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['alfatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikut', 'pikir', 'mah']</t>
+          <t>['pastikan', 'pemilihan, umum', 'berjalan', 'fondasi', 'melanjutkan', 'negara', 'damai', 'pemilihan, umum', 'gagal', 'inte']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['pasti', 'pilih umum', 'jalan', 'fondasi', 'lanjut', 'negara', 'damai', 'pilih umum', 'gagal', 'inte']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17545</v>
+        <v>28313</v>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tak ada kapitalis maka tak ada demokrasi barrington moore jr sosiolog harvard university</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['tak', 'ada', 'kapitalis', 'maka', 'tak', 'ada', 'demokrasi', 'barrington', 'moore', 'jr', 'sosiolog', 'harvard', 'university']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['kapitalis', 'demokrasi', 'barrington', 'moore', 'jr', 'sosiolog', 'harvard', 'university']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['kapitalis', 'demokrasi', 'barrington', 'moore', 'jr', 'sosiolog', 'harvard', 'university']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -547,34 +558,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17546</v>
+        <v>28314</v>
       </c>
       <c r="C4" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ri tahapan pemilu dan pilpres harus sudah jalan tahun sebelumnya dan pilkada setahun sebel</t>
+          <t>rt ar jangan biarkan oposisi hanya diisi pks thread penting mujani</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ri', 'tahapan', 'pemilu', 'dan', 'pilpres', 'harus', 'sudah', 'jalan', 'tahun', 'sebelumnya', 'dan', 'pilkada', 'setahun', 'sebel']</t>
+          <t>['rt', 'ar', 'jangan', 'biarkan', 'oposisi', 'hanya', 'diisi', 'pks', 'thread', 'penting', 'mujani']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'ar', 'jangan', 'biarkan', 'oposisi', 'hanya', 'diisi', 'partai, keadilan, sejahtera', 'thread', 'penting', 'mujani']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ri', 'tahapan', 'pemilu', 'pilpres', 'jalan', 'pilkada', 'setahun', 'sebel']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['ri', 'tahap', 'milu', 'pilpres', 'jalan', 'pilkada', 'tahun', 'sebel']</t>
+          <t>['ar', 'biarkan', 'oposisi', 'diisi', 'partai, keadilan, sejahtera', 'thread', 'mujani']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['ar', 'biar', 'oposisi', 'isi', 'partai adil sejahtera', 'thread', 'mujani']</t>
         </is>
       </c>
     </row>
@@ -583,34 +599,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17547</v>
+        <v>28315</v>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kasih yang ga hoax dong berapa kasus positif dari april sampai sekarang serius ingin tahu</t>
+          <t>maksudnya jumlah oposisi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['kasih', 'yang', 'ga', 'hoax', 'dong', 'berapa', 'kasus', 'positif', 'dari', 'april', 'sampai', 'sekarang', 'serius', 'ingin', 'tahu']</t>
+          <t>['maksudnya', 'jumlah', 'oposisi']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['maksudnya', 'jumlah', 'oposisi']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['kasih', 'hoax', 'positif', 'april', 'serius']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kasih', 'hoax', 'positif', 'april', 'serius']</t>
+          <t>['maksudnya', 'oposisi']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['maksud', 'oposisi']</t>
         </is>
       </c>
     </row>
@@ -619,30 +640,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17548</v>
+        <v>28316</v>
       </c>
       <c r="C6" t="n">
-        <v>217</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>333</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rt kepada prof saiful mujani mujani</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'kepada', 'prof', 'saiful', 'mujani', 'mujani']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'kepada', 'prof', 'saiful', 'mujani', 'mujani']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['prof', 'saiful', 'mujani', 'mujani']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['prof', 'saiful', 'mujani', 'mujani']</t>
         </is>
       </c>
     </row>
@@ -651,34 +681,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17549</v>
+        <v>28317</v>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kl lihat data ini sih sebelum dan sesudah pilkada tgl desember emang nanjak jadi sebab pilkadanya ga jelas ata</t>
+          <t xml:space="preserve">thread by mujani kekuatan pks dan demokrat di dpr hanya sekitar persen ini merupakan jumlah yang </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kl', 'lihat', 'data', 'ini', 'sih', 'sebelum', 'dan', 'sesudah', 'pilkada', 'tgl', 'desember', 'emang', 'nanjak', 'jadi', 'sebab', 'pilkadanya', 'ga', 'jelas', 'ata']</t>
+          <t>['thread', 'by', 'mujani', 'kekuatan', 'pks', 'dan', 'demokrat', 'di', 'dpr', 'hanya', 'sekitar', 'persen', 'ini', 'merupakan', 'jumlah', 'yang']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['thread', 'by', 'mujani', 'kekuatan', 'partai, keadilan, sejahtera', 'dan', 'demokrat', 'di', 'dewan, perwakilan, rakyat', 'hanya', 'sekitar', 'persen', 'ini', 'merupakan', 'jumlah', 'yang']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kl', 'lihat', 'data', 'pilkada', 'tgl', 'desember', 'emang', 'nanjak', 'pilkadanya', 'ata']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kl', 'lihat', 'data', 'pilkada', 'tgl', 'desember', 'emang', 'nanjak', 'pilkadanya', 'ata']</t>
+          <t>['thread', 'by', 'mujani', 'kekuatan', 'partai, keadilan, sejahtera', 'demokrat', 'dewan, perwakilan, rakyat', 'persen']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['thread', 'by', 'mujani', 'kuat', 'partai adil sejahtera', 'demokrat', 'dewan wakil rakyat', 'persen']</t>
         </is>
       </c>
     </row>
@@ -687,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17550</v>
+        <v>28318</v>
       </c>
       <c r="C8" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ini penilian pemerintah mungkin ga bisa dioercaya ya</t>
+          <t>terima kasih selamat akhir pekan sehat selaku bagi kita semua</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['ini', 'penilian', 'pemerintah', 'mungkin', 'ga', 'bisa', 'dioercaya', 'ya']</t>
+          <t>['terima', 'kasih', 'selamat', 'akhir', 'pekan', 'sehat', 'selaku', 'bagi', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'selamat', 'akhir', 'pekan', 'sehat', 'selaku', 'bagi', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['penilian', 'pemerintah', 'dioercaya']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['penilian', 'perintah', 'dioercaya']</t>
+          <t>['terima', 'kasih', 'selamat', 'pekan', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'selamat', 'pekan', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -723,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17551</v>
+        <v>28319</v>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ri tapi ada yang basic kepala daerah ga boleh diangkat pusat untuk kurun cukup lama</t>
+          <t xml:space="preserve">di dua pilpres terakhir umat islam terbelah dua yang membuat jokowi menang di dua pilpres itu adalah pemilih </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ri', 'tapi', 'ada', 'yang', 'basic', 'kepala', 'daerah', 'ga', 'boleh', 'diangkat', 'pusat', 'untuk', 'kurun', 'cukup', 'lama']</t>
+          <t>['di', 'dua', 'pilpres', 'terakhir', 'umat', 'islam', 'terbelah', 'dua', 'yang', 'membuat', 'jokowi', 'menang', 'di', 'dua', 'pilpres', 'itu', 'adalah', 'pemilih']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['di', 'dua', 'pemilihan, presiden', 'terakhir', 'umat', 'islam', 'terbelah', 'dua', 'yang', 'membuat', 'jokowi', 'menang', 'di', 'dua', 'pemilihan, presiden', 'itu', 'adalah', 'pemilih']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ri', 'basic', 'kepala', 'daerah', 'diangkat', 'pusat', 'kurun']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['ri', 'basic', 'kepala', 'daerah', 'angkat', 'pusat', 'kurun']</t>
+          <t>['pemilihan, presiden', 'umat', 'islam', 'terbelah', 'jokowi', 'menang', 'pemilihan, presiden', 'pemilih']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['pilih presiden', 'umat', 'islam', 'belah', 'jokowi', 'menang', 'pilih presiden', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -759,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17552</v>
+        <v>28320</v>
       </c>
       <c r="C10" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ri semoga tidak gagal</t>
+          <t xml:space="preserve">karakteristik pks selama ini adalah berpolitik dengan narasi islam dengan posisi pks sebagai oposisi tunggal </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['ri', 'semoga', 'tidak', 'gagal']</t>
+          <t>['karakteristik', 'pks', 'selama', 'ini', 'adalah', 'berpolitik', 'dengan', 'narasi', 'islam', 'dengan', 'posisi', 'pks', 'sebagai', 'oposisi', 'tunggal']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['karakteristik', 'partai, keadilan, sejahtera', 'selama', 'ini', 'adalah', 'berpolitik', 'dengan', 'narasi', 'islam', 'dengan', 'posisi', 'partai, keadilan, sejahtera', 'sebagai', 'oposisi', 'tunggal']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['ri', 'semoga', 'gagal']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['ri', 'moga', 'gagal']</t>
+          <t>['karakteristik', 'partai, keadilan, sejahtera', 'berpolitik', 'narasi', 'islam', 'posisi', 'partai, keadilan, sejahtera', 'oposisi', 'tunggal']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['karakteristik', 'partai adil sejahtera', 'politik', 'narasi', 'islam', 'posisi', 'partai adil sejahtera', 'oposisi', 'tunggal']</t>
         </is>
       </c>
     </row>
@@ -795,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17553</v>
+        <v>28321</v>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ri uu nya juga dirubah  kebaikan hasil</t>
+          <t>pks akan jadi oposisi tunggal dengan kekuatan tak berarti ini punya konsekwensi lain jumlah yang tak puas den</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['ri', 'uu', 'nya', 'juga', 'dirubah', 'kebaikan', 'hasil']</t>
+          <t>['pks', 'akan', 'jadi', 'oposisi', 'tunggal', 'dengan', 'kekuatan', 'tak', 'berarti', 'ini', 'punya', 'konsekwensi', 'lain', 'jumlah', 'yang', 'tak', 'puas', 'den']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['partai, keadilan, sejahtera', 'akan', 'jadi', 'oposisi', 'tunggal', 'dengan', 'kekuatan', 'tak', 'berarti', 'ini', 'punya', 'konsekuensi', 'lain', 'jumlah', 'yang', 'tak', 'puas', 'den']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ri', 'uu', 'dirubah', 'kebaikan', 'hasil']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ri', 'uu', 'rubah', 'baik', 'hasil']</t>
+          <t>['partai, keadilan, sejahtera', 'oposisi', 'tunggal', 'kekuatan', 'konsekuensi', 'puas', 'den']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['partai adil sejahtera', 'oposisi', 'tunggal', 'kuat', 'konsekuensi', 'puas', 'den']</t>
         </is>
       </c>
     </row>
@@ -831,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17554</v>
+        <v>28322</v>
       </c>
       <c r="C12" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ri itu soal lain lagi tadi covid sekarang uu kan boleh merubah uu kl dinilai hasil</t>
+          <t>bila tinggal persen oposisi maka check and balances bisa dikatakan hilang dalam demokrasi kita dan demokrasi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ri', 'itu', 'soal', 'lain', 'lagi', 'tadi', 'covid', 'sekarang', 'uu', 'kan', 'boleh', 'merubah', 'uu', 'kl', 'dinilai', 'hasil']</t>
+          <t>['bila', 'tinggal', 'persen', 'oposisi', 'maka', 'check', 'and', 'balances', 'bisa', 'dikatakan', 'hilang', 'dalam', 'demokrasi', 'kita', 'dan', 'demokrasi']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['bila', 'tinggal', 'persen', 'oposisi', 'maka', 'check', 'and', 'balances', 'bisa', 'dikatakan', 'hilang', 'dalam', 'demokrasi', 'kita', 'dan', 'demokrasi']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['ri', 'covid', 'uu', 'merubah', 'uu', 'kl', 'dinilai', 'hasil']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['ri', 'covid', 'uu', 'rubah', 'uu', 'kl', 'nilai', 'hasil']</t>
+          <t>['tinggal', 'persen', 'oposisi', 'check', 'and', 'balances', 'hilang', 'demokrasi', 'demokrasi']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['tinggal', 'persen', 'oposisi', 'check', 'and', 'balances', 'hilang', 'demokrasi', 'demokrasi']</t>
         </is>
       </c>
     </row>
@@ -867,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17555</v>
+        <v>28323</v>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kl asumsi itu benar elite itu emang ga cocok menerintah dg sistem demokrasi dan otonomi daerah</t>
+          <t>sekarang ksp moeldoko ditetapkan jadi ketua demokrat lewat klb di sumut bila hasil klb ini diterima pemerintah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kl', 'asumsi', 'itu', 'benar', 'elite', 'itu', 'emang', 'ga', 'cocok', 'menerintah', 'dg', 'sistem', 'demokrasi', 'dan', 'otonomi', 'daerah']</t>
+          <t>['sekarang', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'demokrat', 'lewat', 'klb', 'di', 'sumut', 'bila', 'hasil', 'klb', 'ini', 'diterima', 'pemerintah']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sekarang', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'demokrat', 'lewat', 'klb', 'di', 'sumatra, utara', 'bila', 'hasil', 'klb', 'ini', 'diterima', 'pemerintah']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['kl', 'asumsi', 'elite', 'emang', 'cocok', 'menerintah', 'sistem', 'demokrasi', 'otonomi', 'daerah']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kl', 'asumsi', 'elite', 'emang', 'cocok', 'terin', 'sistem', 'demokrasi', 'otonomi', 'daerah']</t>
+          <t>['ksp', 'moeldoko', 'ditetapkan', 'ketua', 'demokrat', 'klb', 'sumatra, utara', 'hasil', 'klb', 'diterima', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ksp', 'moeldoko', 'tetap', 'ketua', 'demokrat', 'klb', 'sumatra utara', 'hasil', 'klb', 'terima', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -903,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17556</v>
+        <v>28324</v>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>saya udah komentar soal ini di atas intinya kl soal covid dan pilkada kita punya pengalaman baik pikiran sa</t>
+          <t>kekuatan pks dan demokrat di dpr hanya sekitar persen ini merupakan jumlah yang paling kecil sejak presiden sby</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['saya', 'udah', 'komentar', 'soal', 'ini', 'di', 'atas', 'intinya', 'kl', 'soal', 'covid', 'dan', 'pilkada', 'kita', 'punya', 'pengalaman', 'baik', 'pikiran', 'sa']</t>
+          <t>['kekuatan', 'pks', 'dan', 'demokrat', 'di', 'dpr', 'hanya', 'sekitar', 'persen', 'ini', 'merupakan', 'jumlah', 'yang', 'paling', 'kecil', 'sejak', 'presiden', 'sby']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kekuatan', 'partai, keadilan, sejahtera', 'dan', 'demokrat', 'di', 'dewan, perwakilan, rakyat', 'hanya', 'sekitar', 'persen', 'ini', 'merupakan', 'jumlah', 'yang', 'paling', 'kecil', 'sejak', 'presiden', 'susilo, bambang, yudhoyono']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['udah', 'komentar', 'intinya', 'kl', 'covid', 'pilkada', 'pengalaman', 'pikiran', 'sa']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['udah', 'komentar', 'inti', 'kl', 'covid', 'pilkada', 'alam', 'pikir', 'sa']</t>
+          <t>['kekuatan', 'partai, keadilan, sejahtera', 'demokrat', 'dewan, perwakilan, rakyat', 'persen', 'presiden', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kuat', 'partai adil sejahtera', 'demokrat', 'dewan wakil rakyat', 'persen', 'presiden', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17557</v>
+        <v>28325</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ri dari dulu juga ga setuju sekarang momentum untuk omong muncul lagi dengan pengalaman serentak</t>
+          <t>sikap oposisi pks dan demokrat terlihat dr sikap mereka terlait uu ciptakerja yang merupakan inisiatif penerint</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ri', 'dari', 'dulu', 'juga', 'ga', 'setuju', 'sekarang', 'momentum', 'untuk', 'omong', 'muncul', 'lagi', 'dengan', 'pengalaman', 'serentak']</t>
+          <t>['sikap', 'oposisi', 'pks', 'dan', 'demokrat', 'terlihat', 'dr', 'sikap', 'mereka', 'terlait', 'uu', 'ciptakerja', 'yang', 'merupakan', 'inisiatif', 'penerint']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['sikap', 'oposisi', 'partai, keadilan, sejahtera', 'dan', 'demokrat', 'terlihat', 'dari', 'sikap', 'mereka', 'terkait', 'undang, undang', 'ciptakerja', 'yang', 'merupakan', 'inisiatif', 'penerint']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ri', 'setuju', 'momentum', 'omong', 'muncul', 'pengalaman', 'serentak']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ri', 'tuju', 'momentum', 'omong', 'muncul', 'alam', 'serentak']</t>
+          <t>['sikap', 'oposisi', 'partai, keadilan, sejahtera', 'demokrat', 'sikap', 'terkait', 'undang, undang', 'ciptakerja', 'inisiatif', 'penerint']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['sikap', 'oposisi', 'partai adil sejahtera', 'demokrat', 'sikap', 'kait', 'undang undang', 'ciptakerja', 'inisiatif', 'penerint']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17558</v>
+        <v>28326</v>
       </c>
       <c r="C16" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kl tak ada pilkada maka sejumlah provinsi dan ratusan dt dari akhir akan diperintah oleh pejabat yang</t>
+          <t>pada term kedua presiden jokowi gerindra dan prabowo yang jadi lawan utama di pilpres dan takluk pada</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['kl', 'tak', 'ada', 'pilkada', 'maka', 'sejumlah', 'provinsi', 'dan', 'ratusan', 'dt', 'dari', 'akhir', 'akan', 'diperintah', 'oleh', 'pejabat', 'yang']</t>
+          <t>['pada', 'term', 'kedua', 'presiden', 'jokowi', 'gerindra', 'dan', 'prabowo', 'yang', 'jadi', 'lawan', 'utama', 'di', 'pilpres', 'dan', 'takluk', 'pada']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['pada', 'term', 'kedua', 'presiden', 'jokowi', 'gerindra', 'dan', 'prabowo', 'yang', 'jadi', 'lawan', 'utama', 'di', 'pemilihan, presiden', 'dan', 'takluk', 'pada']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['kl', 'pilkada', 'provinsi', 'ratusan', 'dt', 'diperintah', 'pejabat']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['kl', 'pilkada', 'provinsi', 'ratus', 'dt', 'perintah', 'jabat']</t>
+          <t>['term', 'presiden', 'jokowi', 'gerindra', 'prabowo', 'lawan', 'utama', 'pemilihan, presiden', 'takluk']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['term', 'presiden', 'jokowi', 'gerindra', 'prabowo', 'lawan', 'utama', 'pilih presiden', 'takluk']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17559</v>
+        <v>28327</v>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>kl pilkada dki soal lain lagi secara demokratis tidak boleh ada gubernur dalam kurun waktu cukup lama katkan</t>
+          <t>pada term pertama presiden jokowi check and balances dapat diperankan oleh gerindra demokrat dan pks kekutan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['kl', 'pilkada', 'dki', 'soal', 'lain', 'lagi', 'secara', 'demokratis', 'tidak', 'boleh', 'ada', 'gubernur', 'dalam', 'kurun', 'waktu', 'cukup', 'lama', 'katkan']</t>
+          <t>['pada', 'term', 'pertama', 'presiden', 'jokowi', 'check', 'and', 'balances', 'dapat', 'diperankan', 'oleh', 'gerindra', 'demokrat', 'dan', 'pks', 'kekutan']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['pada', 'term', 'pertama', 'presiden', 'jokowi', 'check', 'and', 'balances', 'dapat', 'diperankan', 'oleh', 'gerindra', 'demokrat', 'dan', 'partai, keadilan, sejahtera', 'kekuatan']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kl', 'pilkada', 'dki', 'demokratis', 'gubernur', 'kurun', 'katkan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kl', 'pilkada', 'dki', 'demokratis', 'gubernur', 'kurun', 'katkan']</t>
+          <t>['term', 'presiden', 'jokowi', 'check', 'and', 'balances', 'diperankan', 'gerindra', 'demokrat', 'partai, keadilan, sejahtera', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['term', 'presiden', 'jokowi', 'check', 'and', 'balances', 'peran', 'gerindra', 'demokrat', 'partai adil sejahtera', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17560</v>
+        <v>28328</v>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ya kan argumennya untuk tetap pemilu dan pilkada tetap serentak adalah biar fokus urusi</t>
+          <t xml:space="preserve">pada masa presiden sby kekuatan check and balances diperankan oleh pdip gerindra dan hanura kekuatan mereka </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ya', 'kan', 'argumennya', 'untuk', 'tetap', 'pemilu', 'dan', 'pilkada', 'tetap', 'serentak', 'adalah', 'biar', 'fokus', 'urusi']</t>
+          <t>['pada', 'masa', 'presiden', 'sby', 'kekuatan', 'check', 'and', 'balances', 'diperankan', 'oleh', 'pdip', 'gerindra', 'dan', 'hanura', 'kekuatan', 'mereka']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['pada', 'masa', 'presiden', 'susilo, bambang, yudhoyono', 'kekuatan', 'check', 'and', 'balances', 'diperankan', 'oleh', 'partai, demokrasi, indonesia, perjuangan', 'gerindra', 'dan', 'hanura', 'kekuatan', 'mereka']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['argumennya', 'pemilu', 'pilkada', 'serentak', 'fokus', 'urusi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['argumen', 'milu', 'pilkada', 'serentak', 'fokus', 'urus']</t>
+          <t>['presiden', 'susilo, bambang, yudhoyono', 'kekuatan', 'check', 'and', 'balances', 'diperankan', 'partai, demokrasi, indonesia, perjuangan', 'gerindra', 'hanura', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['presiden', 'susilo bambang yudhoyono', 'kuat', 'check', 'and', 'balances', 'peran', 'partai demokrasi indonesia juang', 'gerindra', 'hanura', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17561</v>
+        <v>28329</v>
       </c>
       <c r="C19" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>argumen ini cacat dg pilkada yang sukses itu</t>
+          <t>pada masa presiden gus dur tidak ada partai yang jelas oposisi tapi golkar yang berkekuatan di dpr sekitar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['argumen', 'ini', 'cacat', 'dg', 'pilkada', 'yang', 'sukses', 'itu']</t>
+          <t>['pada', 'masa', 'presiden', 'gus', 'dur', 'tidak', 'ada', 'partai', 'yang', 'jelas', 'oposisi', 'tapi', 'golkar', 'yang', 'berkekuatan', 'di', 'dpr', 'sekitar']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['pada', 'masa', 'presiden', 'gus', 'dur', 'tidak', 'ada', 'partai', 'yang', 'jelas', 'oposisi', 'tapi', 'golkar', 'yang', 'berkekuatan', 'di', 'dewan, perwakilan, rakyat', 'sekitar']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['argumen', 'cacat', 'pilkada', 'sukses']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['argumen', 'cacat', 'pilkada', 'sukses']</t>
+          <t>['presiden', 'gus', 'dur', 'partai', 'oposisi', 'golkar', 'berkekuatan', 'dewan, perwakilan, rakyat']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['presiden', 'gus', 'dur', 'partai', 'oposisi', 'golkar', 'kuat', 'dewan wakil rakyat']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17562</v>
+        <v>28330</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kl pemilu gagal maka terbuka untuk kudeta dan berakhirlah demokrasi kita tiran akan menentukan kehidupan negara ki</t>
+          <t>memang tidak ada aturannya berapa banyak partai yang dibolehkan untuk menjadi anggota koalisi pemerintah sekara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kl', 'pemilu', 'gagal', 'maka', 'terbuka', 'untuk', 'kudeta', 'dan', 'berakhirlah', 'demokrasi', 'kita', 'tiran', 'akan', 'menentukan', 'kehidupan', 'negara', 'ki']</t>
+          <t>['memang', 'tidak', 'ada', 'aturannya', 'berapa', 'banyak', 'partai', 'yang', 'dibolehkan', 'untuk', 'menjadi', 'anggota', 'koalisi', 'pemerintah', 'sekara']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['memang', 'tidak', 'ada', 'aturannya', 'berapa', 'banyak', 'partai', 'yang', 'dibolehkan', 'untuk', 'menjadi', 'anggota', 'koalisi', 'pemerintah', 'sekara']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['kl', 'pemilu', 'gagal', 'terbuka', 'kudeta', 'demokrasi', 'tiran', 'menentukan', 'kehidupan', 'negara', 'ki']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kl', 'milu', 'gagal', 'buka', 'kudeta', 'demokrasi', 'tiran', 'tentu', 'hidup', 'negara', 'ki']</t>
+          <t>['aturannya', 'partai', 'dibolehkan', 'anggota', 'koalisi', 'pemerintah', 'sekara']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['atur', 'partai', 'boleh', 'anggota', 'koalisi', 'perintah', 'kara']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17563</v>
+        <v>28331</v>
       </c>
       <c r="C21" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>dlm demokrasi pemilu dan hasilnya merupakan dasar bagi pelaksanaan negara krn itu pastikan bhw tiap pemilu tak ada</t>
+          <t>kekuatan partai di dpr yang di luar koalisi tidak mesti harus mayoritas taoi harus cukup besar sebab kl mayori</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['dlm', 'demokrasi', 'pemilu', 'dan', 'hasilnya', 'merupakan', 'dasar', 'bagi', 'pelaksanaan', 'negara', 'krn', 'itu', 'pastikan', 'bhw', 'tiap', 'pemilu', 'tak', 'ada']</t>
+          <t>['kekuatan', 'partai', 'di', 'dpr', 'yang', 'di', 'luar', 'koalisi', 'tidak', 'mesti', 'harus', 'mayoritas', 'taoi', 'harus', 'cukup', 'besar', 'sebab', 'kl', 'mayori']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['kekuatan', 'partai', 'di', 'dewan, perwakilan, rakyat', 'yang', 'di', 'luar', 'koalisi', 'tidak', 'mesti', 'harus', 'mayoritas', 'taoi', 'harus', 'cukup', 'besar', 'sebab', 'kalau', 'mayori']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['dlm', 'demokrasi', 'pemilu', 'hasilnya', 'dasar', 'pelaksanaan', 'negara', 'pastikan', 'bhw', 'pemilu']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['dlm', 'demokrasi', 'milu', 'hasil', 'dasar', 'laksana', 'negara', 'pasti', 'bhw', 'milu']</t>
+          <t>['kekuatan', 'partai', 'dewan, perwakilan, rakyat', 'koalisi', 'mesti', 'mayoritas', 'taoi', 'mayori']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kuat', 'partai', 'dewan wakil rakyat', 'koalisi', 'mesti', 'mayoritas', 'taoi', 'mayor']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17564</v>
+        <v>28332</v>
       </c>
       <c r="C22" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt mujani id ri catatan penting kpu ini perlu disampaikan kepada komisi ii dpr dan pemerintah se</t>
+          <t>bisa saja anggota koalisi itu berperan untuk check and balances untuk kontrol pemerintah tapi dalam prakteknya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'id', 'ri', 'catatan', 'penting', 'kpu', 'ini', 'perlu', 'disampaikan', 'kepada', 'komisi', 'ii', 'dpr', 'dan', 'pemerintah', 'se']</t>
+          <t>['bisa', 'saja', 'anggota', 'koalisi', 'itu', 'berperan', 'untuk', 'check', 'and', 'balances', 'untuk', 'kontrol', 'pemerintah', 'tapi', 'dalam', 'prakteknya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bisa', 'saja', 'anggota', 'koalisi', 'itu', 'berperan', 'untuk', 'check', 'and', 'balances', 'untuk', 'kontrol', 'pemerintah', 'tapi', 'dalam', 'praktiknya']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['mujani', 'id', 'ri', 'catatan', 'kpu', 'komisi', 'ii', 'dpr', 'pemerintah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['mujani', 'id', 'ri', 'catat', 'kpu', 'komisi', 'ii', 'dpr', 'perintah']</t>
+          <t>['anggota', 'koalisi', 'berperan', 'check', 'and', 'balances', 'kontrol', 'pemerintah', 'praktiknya']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['anggota', 'koalisi', 'peran', 'check', 'and', 'balances', 'kontrol', 'perintah', 'praktik']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17565</v>
+        <v>28333</v>
       </c>
       <c r="C23" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kemunduran demokrasi di dunia sekarang banyak disebabkan oleh pejabatpenguasa yang justeru hasil dari demokrasi itu sendiri ironis</t>
+          <t>check and balances itu mensyaratkan ada kekuatan dpr yg otonom atau independen dari pemerintah idependensi itu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kemunduran', 'demokrasi', 'di', 'dunia', 'sekarang', 'banyak', 'disebabkan', 'oleh', 'pejabatpenguasa', 'yang', 'justeru', 'hasil', 'dari', 'demokrasi', 'itu', 'sendiri', 'ironis']</t>
+          <t>['check', 'and', 'balances', 'itu', 'mensyaratkan', 'ada', 'kekuatan', 'dpr', 'yg', 'otonom', 'atau', 'independen', 'dari', 'pemerintah', 'idependensi', 'itu']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['check', 'and', 'balances', 'itu', 'mensyaratkan', 'ada', 'kekuatan', 'dewan, perwakilan, rakyat', 'yang', 'otonom', 'atau', 'bebas', 'dari', 'pemerintah', 'idependensi', 'itu']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['kemunduran', 'demokrasi', 'dunia', 'disebabkan', 'pejabatpenguasa', 'justeru', 'hasil', 'demokrasi', 'ironis']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['mundur', 'demokrasi', 'dunia', 'sebab', 'pejabatpenguasa', 'justeru', 'hasil', 'demokrasi', 'ironis']</t>
+          <t>['check', 'and', 'balances', 'mensyaratkan', 'kekuatan', 'dewan, perwakilan, rakyat', 'otonom', 'bebas', 'pemerintah', 'idependensi']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['check', 'and', 'balances', 'syarat', 'kuat', 'dewan wakil rakyat', 'otonom', 'bebas', 'perintah', 'idependensi']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17566</v>
+        <v>28334</v>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>top barang langka ini</t>
+          <t>yang membedakan demokrasi dengan sistem yang lain adalah adanya check and balances antara legislatif dan eksekut</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['top', 'barang', 'langka', 'ini']</t>
+          <t>['yang', 'membedakan', 'demokrasi', 'dengan', 'sistem', 'yang', 'lain', 'adalah', 'adanya', 'check', 'and', 'balances', 'antara', 'legislatif', 'dan', 'eksekut']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['yang', 'membedakan', 'demokrasi', 'dengan', 'sistem', 'yang', 'lain', 'adalah', 'adanya', 'check', 'and', 'balances', 'antara', 'legislatif', 'dan', 'eksekut']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['top', 'barang', 'langka']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['top', 'barang', 'langka']</t>
+          <t>['membedakan', 'demokrasi', 'sistem', 'check', 'and', 'balances', 'legislatif', 'eksekut']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['beda', 'demokrasi', 'sistem', 'check', 'and', 'balances', 'legislatif', 'eksekut']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17567</v>
+        <v>28335</v>
       </c>
       <c r="C25" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>tahapan pemilu itu sekitar tahun pilkada sekitar tahun beban kpu numpuk tak bisa dihindarkan pe</t>
+          <t>kondisi politik belakangan di tanah air mengingatkan pada buku tahun lalu ini apakah anda diktator</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['tahapan', 'pemilu', 'itu', 'sekitar', 'tahun', 'pilkada', 'sekitar', 'tahun', 'beban', 'kpu', 'numpuk', 'tak', 'bisa', 'dihindarkan', 'pe']</t>
+          <t>['kondisi', 'politik', 'belakangan', 'di', 'tanah', 'air', 'mengingatkan', 'pada', 'buku', 'tahun', 'lalu', 'ini', 'apakah', 'anda', 'diktator']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['kondisi', 'politik', 'belakangan', 'di', 'tanah', 'air', 'mengingatkan', 'pada', 'buku', 'tahun', 'lalu', 'ini', 'apakah', 'anda', 'diktator']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['tahapan', 'pemilu', 'pilkada', 'beban', 'kpu', 'numpuk', 'dihindarkan', 'pe']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['tahap', 'milu', 'pilkada', 'beban', 'kpu', 'numpuk', 'hindar', 'pe']</t>
+          <t>['kondisi', 'politik', 'tanah', 'air', 'buku', 'diktator']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kondisi', 'politik', 'tanah', 'air', 'buku', 'diktator']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1460,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17568</v>
+        <v>28336</v>
       </c>
       <c r="C26" t="n">
-        <v>217</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>memang saya juga belum faham pertimbangan dasarnnya mengapa pemilu legislatif pilpres dan pilkada harus serentak</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['memang', 'saya', 'juga', 'belum', 'faham', 'pertimbangan', 'dasarnnya', 'mengapa', 'pemilu', 'legislatif', 'pilpres', 'dan', 'pilkada', 'harus', 'serentak']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['faham', 'pertimbangan', 'dasarnnya', 'pemilu', 'legislatif', 'pilpres', 'pilkada', 'serentak']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['faham', 'timbang', 'dasarnnya', 'milu', 'legislatif', 'pilpres', 'pilkada', 'serentak']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1497,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17569</v>
+        <v>28337</v>
       </c>
       <c r="C27" t="n">
-        <v>217</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>rt yang begini juga ciri santri google mereka tidak paham bahwa membela hak sipil suatu kelompok tidak mesti setuju dengan pand</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'yang', 'begini', 'juga', 'ciri', 'santri', 'google', 'mereka', 'tidak', 'paham', 'bahwa', 'membela', 'hak', 'sipil', 'suatu', 'kelompok', 'tidak', 'mesti', 'setuju', 'dengan', 'pand']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ciri', 'santri', 'google', 'paham', 'membela', 'hak', 'sipil', 'kelompok', 'mesti', 'setuju', 'pand']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ciri', 'santri', 'google', 'paham', 'bela', 'hak', 'sipil', 'kelompok', 'mesti', 'tuju', 'pand']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17570</v>
+        <v>28338</v>
       </c>
       <c r="C28" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>innalillahi wainna ilaihi rojiun alfatihan utk ayahanda sahabat semoga alharhum khusnul khotimah amin</t>
+          <t>dalam uu itu keberadaan partai dibuktikan dengan akte dan dalam akte harus ada adart ikuti adartnya kl mau</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun', 'alfatihan', 'utk', 'ayahanda', 'sahabat', 'semoga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
+          <t>['dalam', 'uu', 'itu', 'keberadaan', 'partai', 'dibuktikan', 'dengan', 'akte', 'dan', 'dalam', 'akte', 'harus', 'ada', 'adart', 'ikuti', 'adartnya', 'kl', 'mau']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['dalam', 'undang, undang', 'itu', 'keberadaan', 'partai', 'dibuktikan', 'dengan', 'akte', 'dan', 'dalam', 'akte', 'harus', 'ada', 'adart', 'ikuti', 'adartnya', 'kalau', 'mau']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun', 'alfatihan', 'ayahanda', 'sahabat', 'semoga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun', 'alfatihan', 'ayahanda', 'sahabat', 'moga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
+          <t>['undang, undang', 'keberadaan', 'partai', 'dibuktikan', 'akte', 'akte', 'adart', 'ikuti', 'adartnya']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['undang undang', 'ada', 'partai', 'bukti', 'akte', 'akte', 'adart', 'ikut', 'adartnya']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17571</v>
+        <v>28339</v>
       </c>
       <c r="C29" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>alfatihah buat prof firmanzah</t>
+          <t>dalam uu itu keberadaan partai dibuktikan dengan akte dan dalam akte harus ada adart ikuti adartnya kl mau</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['alfatihah', 'buat', 'prof', 'firmanzah']</t>
+          <t>['dalam', 'uu', 'itu', 'keberadaan', 'partai', 'dibuktikan', 'dengan', 'akte', 'dan', 'dalam', 'akte', 'harus', 'ada', 'adart', 'ikuti', 'adartnya', 'kl', 'mau']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dalam', 'undang, undang', 'itu', 'keberadaan', 'partai', 'dibuktikan', 'dengan', 'akte', 'dan', 'dalam', 'akte', 'harus', 'ada', 'adart', 'ikuti', 'adartnya', 'kalau', 'mau']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['alfatihah', 'prof', 'firmanzah']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['alfatihah', 'prof', 'firmanzah']</t>
+          <t>['undang, undang', 'keberadaan', 'partai', 'dibuktikan', 'akte', 'akte', 'adart', 'ikuti', 'adartnya']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['undang undang', 'ada', 'partai', 'bukti', 'akte', 'akte', 'adart', 'ikut', 'adartnya']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1616,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17572</v>
+        <v>28340</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ya tapi partai cekcok di kpu hingga ga bisa putusan hasil itu kpu nya dari partai memalukan untung kita pun</t>
+          <t>hak konstitusionsl setiap warga berpolitik gabung partai dan jadi ketua partai dasar konsitusional itu dituru</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['ya', 'tapi', 'partai', 'cekcok', 'di', 'kpu', 'hingga', 'ga', 'bisa', 'putusan', 'hasil', 'itu', 'kpu', 'nya', 'dari', 'partai', 'memalukan', 'untung', 'kita', 'pun']</t>
+          <t>['hak', 'konstitusionsl', 'setiap', 'warga', 'berpolitik', 'gabung', 'partai', 'dan', 'jadi', 'ketua', 'partai', 'dasar', 'konsitusional', 'itu', 'dituru']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['hak', 'konstitusionsl', 'setiap', 'warga', 'berpolitik', 'gabung', 'partai', 'dan', 'jadi', 'ketua', 'partai', 'dasar', 'konsitusional', 'itu', 'dituru']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['partai', 'cekcok', 'kpu', 'putusan', 'hasil', 'kpu', 'partai', 'memalukan', 'untung']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['partai', 'cekcok', 'kpu', 'putus', 'hasil', 'kpu', 'partai', 'malu', 'untung']</t>
+          <t>['hak', 'konstitusionsl', 'warga', 'berpolitik', 'gabung', 'partai', 'ketua', 'partai', 'dasar', 'konsitusional', 'dituru']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['hak', 'konstitusionsl', 'warga', 'politik', 'gabung', 'partai', 'ketua', 'partai', 'dasar', 'konsitusional', 'dituru']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1657,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17573</v>
+        <v>28341</v>
       </c>
       <c r="C31" t="n">
-        <v>217</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>pada pemilu demokratis partai yang masuk senayan tidak ditentukan oleh batasan jumlah perolehan kursi setela</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['pada', 'pemilu', 'demokratis', 'partai', 'yang', 'masuk', 'senayan', 'tidak', 'ditentukan', 'oleh', 'batasan', 'jumlah', 'perolehan', 'kursi', 'setela']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['pemilu', 'demokratis', 'partai', 'masuk', 'senayan', 'ditentukan', 'batasan', 'perolehan', 'kursi', 'setela']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['milu', 'demokratis', 'partai', 'masuk', 'senayan', 'tentu', 'batas', 'oleh', 'kursi', 'setela']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1694,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17574</v>
+        <v>28342</v>
       </c>
       <c r="C32" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t xml:space="preserve">melemahnya demokrasi di dunia krn pelemahan oposisi oleh pemerintah yang ironisnya adalah hasil demokrasi selama </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['melemahnya', 'demokrasi', 'di', 'dunia', 'krn', 'pelemahan', 'oposisi', 'oleh', 'pemerintah', 'yang', 'ironisnya', 'adalah', 'hasil', 'demokrasi', 'selama']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['melemahnya', 'demokrasi', 'di', 'dunia', 'karena', 'pelemahan', 'oposisi', 'oleh', 'pemerintah', 'yang', 'ironisnya', 'adalah', 'hasil', 'demokrasi', 'selama']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['melemahnya', 'demokrasi', 'dunia', 'pelemahan', 'oposisi', 'pemerintah', 'ironisnya', 'hasil', 'demokrasi']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['lemah', 'demokrasi', 'dunia', 'lemah', 'oposisi', 'perintah', 'ironis', 'hasil', 'demokrasi']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1735,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17575</v>
+        <v>28343</v>
       </c>
       <c r="C33" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt jaga independensi partai politik via mujani</t>
+          <t xml:space="preserve">pelemahan demokrasi ini bisa dihentikan dengan mencegah negara ikut campur internal partai sebagai pilar utama </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
+          <t>['pelemahan', 'demokrasi', 'ini', 'bisa', 'dihentikan', 'dengan', 'mencegah', 'negara', 'ikut', 'campur', 'internal', 'partai', 'sebagai', 'pilar', 'utama']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['pelemahan', 'demokrasi', 'ini', 'bisa', 'dihentikan', 'dengan', 'mencegah', 'negara', 'ikut', 'campur', 'internal', 'partai', 'sebagai', 'pilar', 'utama']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
+          <t>['pelemahan', 'demokrasi', 'dihentikan', 'mencegah', 'negara', 'campur', 'internal', 'partai', 'pilar', 'utama']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['lemah', 'demokrasi', 'henti', 'cegah', 'negara', 'campur', 'internal', 'partai', 'pilar', 'utama']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1776,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17576</v>
+        <v>28344</v>
       </c>
       <c r="C34" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt hello tweep terutama yg tinggal di daerah semarang dan sekitarnya ayah saya sedang memerlukan plasma darah gol  peny</t>
+          <t>hasil akhir dari manuver ksp moeldoko ini adalah membunuh pd demokrat mati di tangan seorang pejabat negara ba</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'hello', 'tweep', 'terutama', 'yg', 'tinggal', 'di', 'daerah', 'semarang', 'dan', 'sekitarnya', 'ayah', 'saya', 'sedang', 'memerlukan', 'plasma', 'darah', 'gol', 'peny']</t>
+          <t>['hasil', 'akhir', 'dari', 'manuver', 'ksp', 'moeldoko', 'ini', 'adalah', 'membunuh', 'pd', 'demokrat', 'mati', 'di', 'tangan', 'seorang', 'pejabat', 'negara', 'ba']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['hasil', 'akhir', 'dari', 'manuver', 'ksp', 'moeldoko', 'ini', 'adalah', 'membunuh', 'pada', 'demokrat', 'mati', 'di', 'tangan', 'seorang', 'pejabat', 'negara', 'ba']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['hello', 'tweep', 'tinggal', 'daerah', 'semarang', 'ayah', 'plasma', 'darah', 'gol', 'peny']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['hello', 'tweep', 'tinggal', 'daerah', 'semarang', 'ayah', 'plasma', 'darah', 'gol', 'peny']</t>
+          <t>['hasil', 'manuver', 'ksp', 'moeldoko', 'membunuh', 'demokrat', 'mati', 'tangan', 'pejabat', 'negara', 'ba']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['hasil', 'manuver', 'ksp', 'moeldoko', 'bunuh', 'demokrat', 'mati', 'tangan', 'jabat', 'negara', 'ba']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1817,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17577</v>
+        <v>28345</v>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ini kantor mbak bukan account pribadi saya</t>
+          <t>akibatnya demokrat bisa menjadi seperti hanura sekarang yang hilang di parlemen setelah wiranto tak lagi mimpin partai itu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ini', 'kantor', 'mbak', 'bukan', 'account', 'pribadi', 'saya']</t>
+          <t>['akibatnya', 'demokrat', 'bisa', 'menjadi', 'seperti', 'hanura', 'sekarang', 'yang', 'hilang', 'di', 'parlemen', 'setelah', 'wiranto', 'tak', 'lagi', 'mimpin', 'partai', 'itu']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['akibatnya', 'demokrat', 'bisa', 'menjadi', 'seperti', 'hanura', 'sekarang', 'yang', 'hilang', 'di', 'parlemen', 'setelah', 'wiranto', 'tak', 'lagi', 'memimpin', 'partai', 'itu']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['kantor', 'mbak', 'account', 'pribadi']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['kantor', 'mbak', 'account', 'pribadi']</t>
+          <t>['akibatnya', 'demokrat', 'hanura', 'hilang', 'parlemen', 'wiranto', 'memimpin', 'partai']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['akibat', 'demokrat', 'hanura', 'hilang', 'parlemen', 'wiranto', 'pimpin', 'partai']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1858,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17578</v>
+        <v>28346</v>
       </c>
       <c r="C36" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mujani ini mbak</t>
+          <t>saya tak bisa membayangkan pd bisa besar dan bahkan terbesar pada tanpa sby suka ataupun tidak itu adalah</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['mujani', 'ini', 'mbak']</t>
+          <t>['saya', 'tak', 'bisa', 'membayangkan', 'pd', 'bisa', 'besar', 'dan', 'bahkan', 'terbesar', 'pada', 'tanpa', 'sby', 'suka', 'ataupun', 'tidak', 'itu', 'adalah']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['saya', 'tak', 'bisa', 'membayangkan', 'pada', 'bisa', 'besar', 'dan', 'bahkan', 'terbesar', 'pada', 'tanpa', 'susilo, bambang, yudhoyono', 'suka', 'ataupun', 'tidak', 'itu', 'adalah']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['mujani', 'mbak']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['mujani', 'mbak']</t>
+          <t>['membayangkan', 'terbesar', 'susilo, bambang, yudhoyono', 'suka']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['bayang', 'besar', 'susilo bambang yudhoyono', 'suka']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1899,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17579</v>
+        <v>28347</v>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt banyak yang bertanya siapa orang dekat pak jokowi yang mau mengambil alih kepemimpinan ahy di demokrat jawaban saya ksp </t>
+          <t>pd ahy selanjutnya akan menggugat ke pengadilan dan ini biasanya hanya bisa selesai di mahkamah agung berarti</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'banyak', 'yang', 'bertanya', 'siapa', 'orang', 'dekat', 'pak', 'jokowi', 'yang', 'mau', 'mengambil', 'alih', 'kepemimpinan', 'ahy', 'di', 'demokrat', 'jawaban', 'saya', 'ksp']</t>
+          <t>['pd', 'ahy', 'selanjutnya', 'akan', 'menggugat', 'ke', 'pengadilan', 'dan', 'ini', 'biasanya', 'hanya', 'bisa', 'selesai', 'di', 'mahkamah', 'agung', 'berarti']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['pada', 'agus, harimurti, yudhoyono', 'selanjutnya', 'akan', 'menggugat', 'ke', 'pengadilan', 'dan', 'ini', 'biasanya', 'hanya', 'bisa', 'selesai', 'di', 'mahkamah', 'agung', 'berarti']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['orang', 'jokowi', 'mengambil', 'alih', 'kepemimpinan', 'ahy', 'demokrat', 'ksp']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['orang', 'jokowi', 'ambil', 'alih', 'pimpin', 'ahy', 'demokrat', 'ksp']</t>
+          <t>['agus, harimurti, yudhoyono', 'menggugat', 'pengadilan', 'selesai', 'mahkamah', 'agung']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['agus harimurti yudhoyono', 'gugat', 'adil', 'selesai', 'mahkamah', 'agung']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1940,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17580</v>
+        <v>28348</v>
       </c>
       <c r="C38" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kl tak diri ya dimundurkan dari pada opini tak sehat bahwa presiden intervensi internal partai orang</t>
+          <t xml:space="preserve">setelah ksp moeldoko ditetapkan jadi ketua partai demokrat lewat klb maka selanjutnya tergantung negara lewat </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kl', 'tak', 'diri', 'ya', 'dimundurkan', 'dari', 'pada', 'opini', 'tak', 'sehat', 'bahwa', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
+          <t>['setelah', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'partai', 'demokrat', 'lewat', 'klb', 'maka', 'selanjutnya', 'tergantung', 'negara', 'lewat']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['setelah', 'ksp', 'moeldoko', 'ditetapkan', 'jadi', 'ketua', 'partai', 'demokrat', 'lewat', 'klb', 'maka', 'selanjutnya', 'tergantung', 'negara', 'lewat']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kl', 'dimundurkan', 'opini', 'sehat', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kl', 'mundur', 'opini', 'sehat', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
+          <t>['ksp', 'moeldoko', 'ditetapkan', 'ketua', 'partai', 'demokrat', 'klb', 'tergantung', 'negara']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['ksp', 'moeldoko', 'tetap', 'ketua', 'partai', 'demokrat', 'klb', 'gantung', 'negara']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1981,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17581</v>
+        <v>28349</v>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tapi nasi sudah jadi bubur langkah kesatria adalah pak muldoko mengundurkan diri dari ksp untuk menjaga kehormatan</t>
+          <t>demokrasi dunia sekarang memang sedang mundur backsliding menurut studi terakhir haghar dan kufman penye</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['tapi', 'nasi', 'sudah', 'jadi', 'bubur', 'langkah', 'kesatria', 'adalah', 'pak', 'muldoko', 'mengundurkan', 'diri', 'dari', 'ksp', 'untuk', 'menjaga', 'kehormatan']</t>
+          <t>['demokrasi', 'dunia', 'sekarang', 'memang', 'sedang', 'mundur', 'backsliding', 'menurut', 'studi', 'terakhir', 'haghar', 'dan', 'kufman', 'penye']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['demokrasi', 'dunia', 'sekarang', 'memang', 'sedang', 'mundur', 'backsliding', 'menurut', 'studi', 'terakhir', 'haghar', 'dan', 'kufman', 'penye']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['nasi', 'bubur', 'langkah', 'kesatria', 'muldoko', 'mengundurkan', 'ksp', 'menjaga', 'kehormatan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['nasi', 'bubur', 'langkah', 'kesatria', 'muldoko', 'undur', 'ksp', 'jaga', 'hormat']</t>
+          <t>['demokrasi', 'dunia', 'mundur', 'backsliding', 'studi', 'haghar', 'kufman', 'penye']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'dunia', 'mundur', 'backsliding', 'studi', 'haghar', 'kufman', 'penye']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2022,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17582</v>
+        <v>28350</v>
       </c>
       <c r="C40" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kl pak muldoko mau cawe dg internal demokrat gabung aja dg demokrat pengaruhi kader lainnya untuk ambil alih ke</t>
+          <t>zaman orba saja yang otoriter pengambilalihan kekuasaan lewat klb oleh kader partai sendiri kasus pdi misalnya di</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kl', 'pak', 'muldoko', 'mau', 'cawe', 'dg', 'internal', 'demokrat', 'gabung', 'aja', 'dg', 'demokrat', 'pengaruhi', 'kader', 'lainnya', 'untuk', 'ambil', 'alih', 'ke']</t>
+          <t>['zaman', 'orba', 'saja', 'yang', 'otoriter', 'pengambilalihan', 'kekuasaan', 'lewat', 'klb', 'oleh', 'kader', 'partai', 'sendiri', 'kasus', 'pdi', 'misalnya', 'di']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['zaman', 'orde, baru', 'saja', 'yang', 'otoriter', 'pengambilalihan', 'kekuasaan', 'lewat', 'klb', 'oleh', 'kader', 'partai', 'sendiri', 'kasus', 'partai, demokrasi, indonesia', 'misalnya', 'di']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['kl', 'muldoko', 'cawe', 'internal', 'demokrat', 'gabung', 'demokrat', 'pengaruhi', 'kader', 'ambil', 'alih']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['kl', 'muldoko', 'cawe', 'internal', 'demokrat', 'gabung', 'demokrat', 'pengaruh', 'kader', 'ambil', 'alih']</t>
+          <t>['zaman', 'orde, baru', 'otoriter', 'pengambilalihan', 'kekuasaan', 'klb', 'kader', 'partai', 'partai, demokrasi, indonesia']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['zaman', 'orde baru', 'otoriter', 'pengambilalihan', 'kuasa', 'klb', 'kader', 'partai', 'partai demokrasi indonesia']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2063,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17583</v>
+        <v>28351</v>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>wow pejabat negara cawe politik internal partai orang kasar pak jendral moeldoko soal isu demokrat jangan gang</t>
+          <t>megawati di klb oleh kader pdi juga soerjadi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['wow', 'pejabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'pak', 'jendral', 'moeldoko', 'soal', 'isu', 'demokrat', 'jangan', 'gang']</t>
+          <t>['megawati', 'di', 'klb', 'oleh', 'kader', 'pdi', 'juga', 'soerjadi']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['megawati', 'di', 'klb', 'oleh', 'kader', 'partai, demokrasi, indonesia', 'juga', 'soerjadi']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['wow', 'pejabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'jendral', 'moeldoko', 'isu', 'demokrat', 'gang']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['wow', 'jabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'jendral', 'moeldoko', 'isu', 'demokrat', 'gang']</t>
+          <t>['megawati', 'klb', 'kader', 'partai, demokrasi, indonesia', 'soerjadi']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['megawati', 'klb', 'kader', 'partai demokrasi indonesia', 'soerjadi']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2104,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17584</v>
+        <v>28352</v>
       </c>
       <c r="C42" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>trims gus secara rutin saya mengamati secara nasional berapa banyak yang menggunakan medsos</t>
+          <t>kejadian pertama partai dibajak orang luar partai</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['trims', 'gus', 'secara', 'rutin', 'saya', 'mengamati', 'secara', 'nasional', 'berapa', 'banyak', 'yang', 'menggunakan', 'medsos']</t>
+          <t>['kejadian', 'pertama', 'partai', 'dibajak', 'orang', 'luar', 'partai']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['kejadian', 'pertama', 'partai', 'dibajak', 'orang', 'luar', 'partai']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['trims', 'gus', 'rutin', 'mengamati', 'nasional', 'medsos']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['trims', 'gus', 'rutin', 'amat', 'nasional', 'medsos']</t>
+          <t>['kejadian', 'partai', 'dibajak', 'orang', 'partai']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['jadi', 'partai', 'bajak', 'orang', 'partai']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2145,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17585</v>
+        <v>28353</v>
       </c>
       <c r="C43" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>berakhirnya demokrasi di myanmar kita mengalami ini dan semoga tak terjadi lagi harus tetap waspada</t>
+          <t>jadi bener yang dibilang demokrat sebelumnya segitu aja</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['berakhirnya', 'demokrasi', 'di', 'myanmar', 'kita', 'mengalami', 'ini', 'dan', 'semoga', 'tak', 'terjadi', 'lagi', 'harus', 'tetap', 'waspada']</t>
+          <t>['jadi', 'bener', 'yang', 'dibilang', 'demokrat', 'sebelumnya', 'segitu', 'aja']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['jadi', 'benar', 'yang', 'dibilang', 'demokrat', 'sebelumnya', 'sebegitu', 'saja']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['demokrasi', 'myanmar', 'mengalami', 'semoga', 'waspada']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['demokrasi', 'myanmar', 'alami', 'moga', 'waspada']</t>
+          <t>['dibilang', 'demokrat']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['bilang', 'demokrat']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2186,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17586</v>
+        <v>28354</v>
       </c>
       <c r="C44" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>basisnya self report di internet mungkin ini sumber perbedaan tapi bedanya besar banget</t>
+          <t>ceitera klb paling mutakhir mekumham kunci penhesahan klb tapi pengadilan membatalkannya lalu yang kalah banding</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['basisnya', 'self', 'report', 'di', 'internet', 'mungkin', 'ini', 'sumber', 'perbedaan', 'tapi', 'bedanya', 'besar', 'banget']</t>
+          <t>['ceitera', 'klb', 'paling', 'mutakhir', 'mekumham', 'kunci', 'penhesahan', 'klb', 'tapi', 'pengadilan', 'membatalkannya', 'lalu', 'yang', 'kalah', 'banding']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ceitera', 'klb', 'paling', 'mutakhir', 'mekumham', 'kunci', 'penhesahan', 'klb', 'tapi', 'pengadilan', 'membatalkannya', 'lalu', 'yang', 'kalah', 'banding']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['basisnya', 'self', 'report', 'internet', 'sumber', 'perbedaan', 'bedanya', 'banget']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['basis', 'self', 'report', 'internet', 'sumber', 'beda', 'beda', 'banget']</t>
+          <t>['ceitera', 'klb', 'mutakhir', 'mekumham', 'kunci', 'penhesahan', 'klb', 'pengadilan', 'membatalkannya', 'kalah', 'banding']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['ceitera', 'klb', 'mutakhir', 'mekumham', 'kunci', 'penhesahan', 'klb', 'adil', 'batal', 'kalah', 'banding']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2227,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17587</v>
+        <v>28355</v>
       </c>
       <c r="C45" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ya tapi itu besar</t>
+          <t>ingat klb partai demokrasi indonesia pdi di zaman orba ketika megawati digusur orba sbg ketua pdi waktu itu tapi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['ya', 'tapi', 'itu', 'besar']</t>
+          <t>['ingat', 'klb', 'partai', 'demokrasi', 'indonesia', 'pdi', 'di', 'zaman', 'orba', 'ketika', 'megawati', 'digusur', 'orba', 'sbg', 'ketua', 'pdi', 'waktu', 'itu', 'tapi']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ingat', 'klb', 'partai', 'demokrasi', 'indonesia', 'partai, demokrasi, indonesia', 'di', 'zaman', 'orde, baru', 'ketika', 'megawati', 'digusur', 'orde, baru', 'sebagai', 'ketua', 'partai, demokrasi, indonesia', 'waktu', 'itu', 'tapi']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['klb', 'partai', 'demokrasi', 'indonesia', 'partai, demokrasi, indonesia', 'zaman', 'orde, baru', 'megawati', 'digusur', 'orde, baru', 'ketua', 'partai, demokrasi, indonesia']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['klb', 'partai', 'demokrasi', 'indonesia', 'partai demokrasi indonesia', 'zaman', 'orde baru', 'megawati', 'gusur', 'orde baru', 'ketua', 'partai demokrasi indonesia']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2268,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17588</v>
+        <v>28356</v>
       </c>
       <c r="C46" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>beda dengan yang saya punya</t>
+          <t>alfatihah buat almarhum kang jalaluddin rahmat intelketual yang kami banyak ikuti pemikirannya terutama ketika mah</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['beda', 'dengan', 'yang', 'saya', 'punya']</t>
+          <t>['alfatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'mah']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['al, fatihah', 'buat', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'yang', 'kami', 'banyak', 'ikuti', 'pemikirannya', 'terutama', 'ketika', 'adalah']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['beda']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['beda']</t>
+          <t>['al, fatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikuti', 'pemikirannya']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['al fatihah', 'almarhum', 'kang', 'jalaluddin', 'rahmat', 'intelketual', 'ikut', 'pikir']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2309,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17589</v>
+        <v>28357</v>
       </c>
       <c r="C47" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>beda banget ya</t>
+          <t>tak ada kapitalis maka tak ada demokrasi barrington moore jr sosiolog harvard university</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['beda', 'banget', 'ya']</t>
+          <t>['tak', 'ada', 'kapitalis', 'maka', 'tak', 'ada', 'demokrasi', 'barrington', 'moore', 'jr', 'sosiolog', 'harvard', 'university']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tak', 'ada', 'kapitalis', 'maka', 'tak', 'ada', 'demokrasi', 'barrington', 'moore', 'junior', 'sosiolog', 'harvard', 'universitas']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['beda', 'banget']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['beda', 'banget']</t>
+          <t>['kapitalis', 'demokrasi', 'barrington', 'moore', 'junior', 'sosiolog', 'harvard', 'universitas']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['kapitalis', 'demokrasi', 'barrington', 'moore', 'junior', 'sosiolog', 'harvard', 'universitas']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2350,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17590</v>
+        <v>28358</v>
       </c>
       <c r="C48" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>observasi saya jangkauan twit di indo mandeg di kisaran persen maka apapun isunya krn bas</t>
+          <t>ri tahapan pemilu dan pilpres harus sudah jalan tahun sebelumnya dan pilkada setahun sebel</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['observasi', 'saya', 'jangkauan', 'twit', 'di', 'indo', 'mandeg', 'di', 'kisaran', 'persen', 'maka', 'apapun', 'isunya', 'krn', 'bas']</t>
+          <t>['ri', 'tahapan', 'pemilu', 'dan', 'pilpres', 'harus', 'sudah', 'jalan', 'tahun', 'sebelumnya', 'dan', 'pilkada', 'setahun', 'sebel']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['ri', 'tahapan', 'pemilihan, umum', 'dan', 'pemilihan, presiden', 'harus', 'sudah', 'jalan', 'tahun', 'sebelumnya', 'dan', 'pilihan, kepala, daerah', 'setahun', 'kesal']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['observasi', 'jangkauan', 'twit', 'indo', 'mandeg', 'kisaran', 'persen', 'apapun', 'isunya', 'bas']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['observasi', 'jangkau', 'twit', 'indo', 'mandeg', 'kisar', 'persen', 'apa', 'isu', 'bas']</t>
+          <t>['ri', 'tahapan', 'pemilihan, umum', 'pemilihan, presiden', 'jalan', 'pilihan, kepala, daerah', 'setahun', 'kesal']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['ri', 'tahap', 'pilih umum', 'pilih presiden', 'jalan', 'pilih kepala daerah', 'tahun', 'kesal']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2391,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17591</v>
+        <v>28359</v>
       </c>
       <c r="C49" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>observasi saya facebook istagram jauh lebih memotret populasi kita dan trendnya makin menguat</t>
+          <t>kasih yang ga hoax dong berapa kasus positif dari april sampai sekarang serius ingin tahu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['observasi', 'saya', 'facebook', 'istagram', 'jauh', 'lebih', 'memotret', 'populasi', 'kita', 'dan', 'trendnya', 'makin', 'menguat']</t>
+          <t>['kasih', 'yang', 'ga', 'hoax', 'dong', 'berapa', 'kasus', 'positif', 'dari', 'april', 'sampai', 'sekarang', 'serius', 'ingin', 'tahu']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kasih', 'yang', 'tidak', 'hoaks', 'dong', 'berapa', 'kasus', 'positif', 'dari', 'april', 'sampai', 'sekarang', 'serius', 'ingin', 'tahu']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['observasi', 'facebook', 'istagram', 'memotret', 'populasi', 'trendnya', 'menguat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['observasi', 'facebook', 'istagram', 'potret', 'populasi', 'trendnya', 'kuat']</t>
+          <t>['kasih', 'hoaks', 'positif', 'april', 'serius']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kasih', 'hoaks', 'positif', 'april', 'serius']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2432,35 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17592</v>
+        <v>28360</v>
       </c>
       <c r="C50" t="n">
-        <v>217</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>yang berbasis facebook liat di mana</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['yang', 'berbasis', 'facebook', 'liat', 'di', 'mana']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['berbasis', 'facebook', 'liat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['bas', 'facebook', 'liat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2235,30 +2469,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17593</v>
+        <v>28361</v>
       </c>
       <c r="C51" t="n">
-        <v>217</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>333</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>kl lihat data ini sih sebelum dan sesudah pilkada tgl desember emang nanjak jadi sebab pilkadanya ga jelas ata</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kl', 'lihat', 'data', 'ini', 'sih', 'sebelum', 'dan', 'sesudah', 'pilkada', 'tgl', 'desember', 'emang', 'nanjak', 'jadi', 'sebab', 'pilkadanya', 'ga', 'jelas', 'ata']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kalau', 'lihat', 'data', 'ini', 'sih', 'sebelum', 'dan', 'sesudah', 'pilihan, kepala, daerah', 'tanggal', 'desember', 'memang', 'nanjak', 'jadi', 'sebab', 'pilkadanya', 'tidak', 'jelas', 'ata']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lihat', 'data', 'pilihan, kepala, daerah', 'tanggal', 'desember', 'nanjak', 'pilkadanya', 'ata']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['lihat', 'data', 'pilih kepala daerah', 'tanggal', 'desember', 'nanjak', 'pilkadanya', 'ata']</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2510,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17594</v>
+        <v>28362</v>
       </c>
       <c r="C52" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>itu basisnya hanya twitter ya mas</t>
+          <t>ini penilian pemerintah mungkin ga bisa dioercaya ya</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['itu', 'basisnya', 'hanya', 'twitter', 'ya', 'mas']</t>
+          <t>['ini', 'penilian', 'pemerintah', 'mungkin', 'ga', 'bisa', 'dioercaya', 'ya']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ini', 'penilian', 'pemerintah', 'mungkin', 'tidak', 'bisa', 'dioercaya', 'ya']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['basisnya', 'twitter', 'mas']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['basis', 'twitter', 'mas']</t>
+          <t>['penilian', 'pemerintah', 'dioercaya']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['penilian', 'perintah', 'dioercaya']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2551,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17595</v>
+        <v>28363</v>
       </c>
       <c r="C53" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>terlalu lambat un india sejuta sehari prifile sosial ekonomi india ga jauh beda dengan kita ko mereka bisa jauh lebih cepat ya</t>
+          <t>ri tapi ada yang basic kepala daerah ga boleh diangkat pusat untuk kurun cukup lama</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['terlalu', 'lambat', 'un', 'india', 'sejuta', 'sehari', 'prifile', 'sosial', 'ekonomi', 'india', 'ga', 'jauh', 'beda', 'dengan', 'kita', 'ko', 'mereka', 'bisa', 'jauh', 'lebih', 'cepat', 'ya']</t>
+          <t>['ri', 'tapi', 'ada', 'yang', 'basic', 'kepala', 'daerah', 'ga', 'boleh', 'diangkat', 'pusat', 'untuk', 'kurun', 'cukup', 'lama']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['ri', 'tapi', 'ada', 'yang', 'basic', 'kepala', 'daerah', 'tidak', 'boleh', 'diangkat', 'pusat', 'untuk', 'kurun', 'cukup', 'lama']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['lambat', 'un', 'india', 'sejuta', 'sehari', 'prifile', 'sosial', 'ekonomi', 'india', 'beda', 'ko', 'cepat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['lambat', 'un', 'india', 'juta', 'hari', 'prifile', 'sosial', 'ekonomi', 'india', 'beda', 'ko', 'cepat']</t>
+          <t>['ri', 'basic', 'kepala', 'daerah', 'diangkat', 'pusat', 'kurun']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ri', 'basic', 'kepala', 'daerah', 'angkat', 'pusat', 'kurun']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2592,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17596</v>
+        <v>28364</v>
       </c>
       <c r="C54" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>kalau bisa inginnya sih presiden juga tak dipilih rakyat langsung</t>
+          <t>ri semoga tidak gagal</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['kalau', 'bisa', 'inginnya', 'sih', 'presiden', 'juga', 'tak', 'dipilih', 'rakyat', 'langsung']</t>
+          <t>['ri', 'semoga', 'tidak', 'gagal']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['ri', 'semoga', 'tidak', 'gagal']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['inginnya', 'presiden', 'dipilih', 'rakyat', 'langsung']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['ingin', 'presiden', 'pilih', 'rakyat', 'langsung']</t>
+          <t>['ri', 'semoga', 'gagal']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['ri', 'moga', 'gagal']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2633,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17597</v>
+        <v>28365</v>
       </c>
       <c r="C55" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>kl pemilihan gubernur disatukan ke maka akan ada lebih dari dr total gubernur diganti plt yg ditunjuk pem</t>
+          <t>ri uu nya juga dirubah  kebaikan hasil</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kl', 'pemilihan', 'gubernur', 'disatukan', 'ke', 'maka', 'akan', 'ada', 'lebih', 'dari', 'dr', 'total', 'gubernur', 'diganti', 'plt', 'yg', 'ditunjuk', 'pem']</t>
+          <t>['ri', 'uu', 'nya', 'juga', 'dirubah', 'kebaikan', 'hasil']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['ri', 'undang, undang', 'nya', 'juga', 'diubah', 'kebaikan', 'hasil']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kl', 'pemilihan', 'gubernur', 'disatukan', 'dr', 'total', 'gubernur', 'diganti', 'plt', 'pem']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['kl', 'pilih', 'gubernur', 'satu', 'dr', 'total', 'gubernur', 'ganti', 'plt', 'pem']</t>
+          <t>['ri', 'undang, undang', 'diubah', 'kebaikan', 'hasil']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['ri', 'undang undang', 'ubah', 'baik', 'hasil']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2674,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17598</v>
+        <v>28366</v>
       </c>
       <c r="C56" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>apa tang membuat beda pemilu dan pemilu sebelumnya dan pilkada kenapa makan banyak korban karena</t>
+          <t>ri itu soal lain lagi tadi covid sekarang uu kan boleh merubah uu kl dinilai hasil</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['apa', 'tang', 'membuat', 'beda', 'pemilu', 'dan', 'pemilu', 'sebelumnya', 'dan', 'pilkada', 'kenapa', 'makan', 'banyak', 'korban', 'karena']</t>
+          <t>['ri', 'itu', 'soal', 'lain', 'lagi', 'tadi', 'covid', 'sekarang', 'uu', 'kan', 'boleh', 'merubah', 'uu', 'kl', 'dinilai', 'hasil']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['ri', 'itu', 'soal', 'lain', 'lagi', 'tadi', 'covid', 'sekarang', 'undang, undang', 'kan', 'boleh', 'mengubah', 'undang, undang', 'kalau', 'dinilai', 'hasil']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['tang', 'beda', 'pemilu', 'pemilu', 'pilkada', 'makan', 'korban']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['tang', 'beda', 'milu', 'milu', 'pilkada', 'makan', 'korban']</t>
+          <t>['ri', 'covid', 'undang, undang', 'mengubah', 'undang, undang', 'dinilai', 'hasil']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['ri', 'covid', 'undang undang', 'ubah', 'undang undang', 'nilai', 'hasil']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2715,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17599</v>
+        <v>28367</v>
       </c>
       <c r="C57" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>petugas pemilu meninggal dan orang sakit ini tak ada presedennya di pemilu kita pilkada kemar</t>
+          <t>kl asumsi itu benar elite itu emang ga cocok menerintah dg sistem demokrasi dan otonomi daerah</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['petugas', 'pemilu', 'meninggal', 'dan', 'orang', 'sakit', 'ini', 'tak', 'ada', 'presedennya', 'di', 'pemilu', 'kita', 'pilkada', 'kemar']</t>
+          <t>['kl', 'asumsi', 'itu', 'benar', 'elite', 'itu', 'emang', 'ga', 'cocok', 'menerintah', 'dg', 'sistem', 'demokrasi', 'dan', 'otonomi', 'daerah']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['kalau', 'asumsi', 'itu', 'benar', 'elite', 'itu', 'memang', 'tidak', 'cocok', 'menerintah', 'dengan', 'sistem', 'demokrasi', 'dan', 'otonomi', 'daerah']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['petugas', 'pemilu', 'meninggal', 'orang', 'sakit', 'presedennya', 'pemilu', 'pilkada', 'kemar']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['tugas', 'milu', 'tinggal', 'orang', 'sakit', 'preseden', 'milu', 'pilkada', 'mar']</t>
+          <t>['asumsi', 'elite', 'cocok', 'menerintah', 'sistem', 'demokrasi', 'otonomi', 'daerah']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['asumsi', 'elite', 'cocok', 'terin', 'sistem', 'demokrasi', 'otonomi', 'daerah']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2756,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17600</v>
+        <v>28368</v>
       </c>
       <c r="C58" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt mujani argumen bahwa presidensialisme tak bergantung terhadap partai dan dpr tak sepenuhnya benar terbukti omong kosong wa</t>
+          <t>saya udah komentar soal ini di atas intinya kl soal covid dan pilkada kita punya pengalaman baik pikiran sa</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'argumen', 'bahwa', 'presidensialisme', 'tak', 'bergantung', 'terhadap', 'partai', 'dan', 'dpr', 'tak', 'sepenuhnya', 'benar', 'terbukti', 'omong', 'kosong', 'wa']</t>
+          <t>['saya', 'udah', 'komentar', 'soal', 'ini', 'di', 'atas', 'intinya', 'kl', 'soal', 'covid', 'dan', 'pilkada', 'kita', 'punya', 'pengalaman', 'baik', 'pikiran', 'sa']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['saya', 'sudah', 'komentar', 'soal', 'ini', 'di', 'atas', 'intinya', 'kalau', 'soal', 'covid', 'dan', 'pilihan, kepala, daerah', 'kita', 'punya', 'pengalaman', 'baik', 'pikiran', 'sa']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['mujani', 'argumen', 'presidensialisme', 'bergantung', 'partai', 'dpr', 'sepenuhnya', 'terbukti', 'omong', 'kosong', 'wa']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['mujani', 'argumen', 'presidensial', 'gantung', 'partai', 'dpr', 'sepenuh', 'bukti', 'omong', 'kosong', 'wa']</t>
+          <t>['komentar', 'intinya', 'covid', 'pilihan, kepala, daerah', 'pengalaman', 'pikiran', 'sa']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['komentar', 'inti', 'covid', 'pilih kepala daerah', 'alam', 'pikir', 'sa']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2797,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17601</v>
+        <v>28369</v>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>argumen bahwa presidensialisme tak bergantung terhadap partai dan dpr tak sepenuhnya benar terbukti omong kosong wassalam</t>
+          <t>ri dari dulu juga ga setuju sekarang momentum untuk omong muncul lagi dengan pengalaman serentak</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['argumen', 'bahwa', 'presidensialisme', 'tak', 'bergantung', 'terhadap', 'partai', 'dan', 'dpr', 'tak', 'sepenuhnya', 'benar', 'terbukti', 'omong', 'kosong', 'wassalam']</t>
+          <t>['ri', 'dari', 'dulu', 'juga', 'ga', 'setuju', 'sekarang', 'momentum', 'untuk', 'omong', 'muncul', 'lagi', 'dengan', 'pengalaman', 'serentak']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ri', 'dari', 'dulu', 'juga', 'tidak', 'setuju', 'sekarang', 'momentum', 'untuk', 'omong', 'muncul', 'lagi', 'dengan', 'pengalaman', 'serentak']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['argumen', 'presidensialisme', 'bergantung', 'partai', 'dpr', 'sepenuhnya', 'terbukti', 'omong', 'kosong', 'wassalam']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['argumen', 'presidensial', 'gantung', 'partai', 'dpr', 'sepenuh', 'bukti', 'omong', 'kosong', 'wassalam']</t>
+          <t>['ri', 'setuju', 'momentum', 'omong', 'muncul', 'pengalaman', 'serentak']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ri', 'tuju', 'momentum', 'omong', 'muncul', 'alam', 'serentak']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2838,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17602</v>
+        <v>28370</v>
       </c>
       <c r="C60" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>dpr tetap membuat uu agar capres didasrakan pasa perolehan suara partai dari pemilu sebelumnya tresholdnya juga</t>
+          <t>kl tak ada pilkada maka sejumlah provinsi dan ratusan dt dari akhir akan diperintah oleh pejabat yang</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['dpr', 'tetap', 'membuat', 'uu', 'agar', 'capres', 'didasrakan', 'pasa', 'perolehan', 'suara', 'partai', 'dari', 'pemilu', 'sebelumnya', 'tresholdnya', 'juga']</t>
+          <t>['kl', 'tak', 'ada', 'pilkada', 'maka', 'sejumlah', 'provinsi', 'dan', 'ratusan', 'dt', 'dari', 'akhir', 'akan', 'diperintah', 'oleh', 'pejabat', 'yang']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kalau', 'tak', 'ada', 'pilihan, kepala, daerah', 'maka', 'sejumlah', 'provinsi', 'dan', 'ratusan', 'dt', 'dari', 'akhir', 'akan', 'diperintah', 'oleh', 'pejabat', 'yang']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['dpr', 'uu', 'capres', 'didasrakan', 'pasa', 'perolehan', 'suara', 'partai', 'pemilu', 'tresholdnya']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['dpr', 'uu', 'capres', 'didasrakan', 'pasa', 'oleh', 'suara', 'partai', 'milu', 'tresholdnya']</t>
+          <t>['pilihan, kepala, daerah', 'provinsi', 'ratusan', 'dt', 'diperintah', 'pejabat']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['pilih kepala daerah', 'provinsi', 'ratus', 'dt', 'perintah', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2879,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17603</v>
+        <v>28371</v>
       </c>
       <c r="C61" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">kepentingan politik praktisnya adalah agar hasil pemilu legislatif tidak menentukan pilpres partai kecil bisa </t>
+          <t>kl pilkada dki soal lain lagi secara demokratis tidak boleh ada gubernur dalam kurun waktu cukup lama katkan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['kepentingan', 'politik', 'praktisnya', 'adalah', 'agar', 'hasil', 'pemilu', 'legislatif', 'tidak', 'menentukan', 'pilpres', 'partai', 'kecil', 'bisa']</t>
+          <t>['kl', 'pilkada', 'dki', 'soal', 'lain', 'lagi', 'secara', 'demokratis', 'tidak', 'boleh', 'ada', 'gubernur', 'dalam', 'kurun', 'waktu', 'cukup', 'lama', 'katkan']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kalau', 'pilihan, kepala, daerah', 'daerah, khusus, ibukota', 'soal', 'lain', 'lagi', 'secara', 'demokratis', 'tidak', 'boleh', 'ada', 'gubernur', 'dalam', 'kurun', 'waktu', 'cukup', 'lama', 'katkan']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kepentingan', 'politik', 'praktisnya', 'hasil', 'pemilu', 'legislatif', 'menentukan', 'pilpres', 'partai']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['penting', 'politik', 'praktis', 'hasil', 'milu', 'legislatif', 'tentu', 'pilpres', 'partai']</t>
+          <t>['pilihan, kepala, daerah', 'daerah, khusus, ibukota', 'demokratis', 'gubernur', 'kurun', 'katkan']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['pilih kepala daerah', 'daerah khusus ibukota', 'demokratis', 'gubernur', 'kurun', 'katkan']</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2920,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17604</v>
+        <v>28372</v>
       </c>
       <c r="C62" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt mujani ide review ke mk untuk menyatukan pemilu dan pilpres dan dikabulkan mk lebih karena alasan politik praktis ketimbang</t>
+          <t>ya kan argumennya untuk tetap pemilu dan pilkada tetap serentak adalah biar fokus urusi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'ide', 'review', 'ke', 'mk', 'untuk', 'menyatukan', 'pemilu', 'dan', 'pilpres', 'dan', 'dikabulkan', 'mk', 'lebih', 'karena', 'alasan', 'politik', 'praktis', 'ketimbang']</t>
+          <t>['ya', 'kan', 'argumennya', 'untuk', 'tetap', 'pemilu', 'dan', 'pilkada', 'tetap', 'serentak', 'adalah', 'biar', 'fokus', 'urusi']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['ya', 'kan', 'argumennya', 'untuk', 'tetap', 'pemilihan, umum', 'dan', 'pilihan, kepala, daerah', 'tetap', 'serentak', 'adalah', 'biar', 'fokus', 'urusi']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['mujani', 'ide', 'review', 'mk', 'menyatukan', 'pemilu', 'pilpres', 'dikabulkan', 'mk', 'alasan', 'politik', 'praktis', 'ketimbang']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['mujani', 'ide', 'review', 'mk', 'satu', 'milu', 'pilpres', 'kabul', 'mk', 'alas', 'politik', 'praktis', 'ketimbang']</t>
+          <t>['argumennya', 'pemilihan, umum', 'pilihan, kepala, daerah', 'serentak', 'fokus', 'urusi']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['argumen', 'pilih umum', 'pilih kepala daerah', 'serentak', 'fokus', 'urus']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2961,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17605</v>
+        <v>28373</v>
       </c>
       <c r="C63" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ide review ke mk untuk menyatukan pemilu dan pilpres dan dikabulkan mk lebih karena alasan politik praktis ketim</t>
+          <t>argumen ini cacat dg pilkada yang sukses itu</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['ide', 'review', 'ke', 'mk', 'untuk', 'menyatukan', 'pemilu', 'dan', 'pilpres', 'dan', 'dikabulkan', 'mk', 'lebih', 'karena', 'alasan', 'politik', 'praktis', 'ketim']</t>
+          <t>['argumen', 'ini', 'cacat', 'dg', 'pilkada', 'yang', 'sukses', 'itu']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['argumen', 'ini', 'cacat', 'dengan', 'pilihan, kepala, daerah', 'yang', 'sukses', 'itu']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['ide', 'review', 'mk', 'menyatukan', 'pemilu', 'pilpres', 'dikabulkan', 'mk', 'alasan', 'politik', 'praktis', 'ketim']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['ide', 'review', 'mk', 'satu', 'milu', 'pilpres', 'kabul', 'mk', 'alas', 'politik', 'praktis', 'tim']</t>
+          <t>['argumen', 'cacat', 'pilihan, kepala, daerah', 'sukses']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['argumen', 'cacat', 'pilih kepala daerah', 'sukses']</t>
         </is>
       </c>
     </row>
@@ -2699,34 +3002,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17606</v>
+        <v>28374</v>
       </c>
       <c r="C64" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt mujani konflik politik karena perbedaan kepentingan adalah normal yg harus dilakukan adalh mengelolanya supaya tidak menjad</t>
+          <t>kl pemilu gagal maka terbuka untuk kudeta dan berakhirlah demokrasi kita tiran akan menentukan kehidupan negara ki</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'konflik', 'politik', 'karena', 'perbedaan', 'kepentingan', 'adalah', 'normal', 'yg', 'harus', 'dilakukan', 'adalh', 'mengelolanya', 'supaya', 'tidak', 'menjad']</t>
+          <t>['kl', 'pemilu', 'gagal', 'maka', 'terbuka', 'untuk', 'kudeta', 'dan', 'berakhirlah', 'demokrasi', 'kita', 'tiran', 'akan', 'menentukan', 'kehidupan', 'negara', 'ki']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['kalau', 'pemilihan, umum', 'gagal', 'maka', 'terbuka', 'untuk', 'kudeta', 'dan', 'berakhirlah', 'demokrasi', 'kita', 'tiran', 'akan', 'menentukan', 'kehidupan', 'negara', 'ki']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['mujani', 'konflik', 'politik', 'perbedaan', 'kepentingan', 'normal', 'adalh', 'mengelolanya', 'menjad']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['mujani', 'konflik', 'politik', 'beda', 'penting', 'normal', 'adalh', 'kelola', 'menjad']</t>
+          <t>['pemilihan, umum', 'gagal', 'terbuka', 'kudeta', 'demokrasi', 'tiran', 'menentukan', 'kehidupan', 'negara', 'ki']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['pilih umum', 'gagal', 'buka', 'kudeta', 'demokrasi', 'tiran', 'tentu', 'hidup', 'negara', 'ki']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +3043,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17607</v>
+        <v>28375</v>
       </c>
       <c r="C65" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt mujani pemilu dan pilpres adalah pelajaran mahal bagi kita kurang terkelola dengan baik banyak korban berjatuhan ini</t>
+          <t>dlm demokrasi pemilu dan hasilnya merupakan dasar bagi pelaksanaan negara krn itu pastikan bhw tiap pemilu tak ada</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'pemilu', 'dan', 'pilpres', 'adalah', 'pelajaran', 'mahal', 'bagi', 'kita', 'kurang', 'terkelola', 'dengan', 'baik', 'banyak', 'korban', 'berjatuhan', 'ini']</t>
+          <t>['dlm', 'demokrasi', 'pemilu', 'dan', 'hasilnya', 'merupakan', 'dasar', 'bagi', 'pelaksanaan', 'negara', 'krn', 'itu', 'pastikan', 'bhw', 'tiap', 'pemilu', 'tak', 'ada']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['dalam', 'demokrasi', 'pemilihan, umum', 'dan', 'hasilnya', 'merupakan', 'dasar', 'bagi', 'pelaksanaan', 'negara', 'karena', 'itu', 'pastikan', 'bahwa', 'tiap', 'pemilihan, umum', 'tak', 'ada']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mujani', 'pemilu', 'pilpres', 'pelajaran', 'mahal', 'terkelola', 'korban', 'berjatuhan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mujani', 'milu', 'pilpres', 'ajar', 'mahal', 'kelola', 'korban', 'jatuh']</t>
+          <t>['demokrasi', 'pemilihan, umum', 'hasilnya', 'dasar', 'pelaksanaan', 'negara', 'pastikan', 'pemilihan, umum']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'pilih umum', 'hasil', 'dasar', 'laksana', 'negara', 'pasti', 'pilih umum']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +3084,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17608</v>
+        <v>28376</v>
       </c>
       <c r="C66" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt mujani pillada dan pemilu yang tersebar menurut waktu dan tempat resiko tak terkelolanya lebih rendah seperti pengalaman kit</t>
+          <t>rt mujani id ri catatan penting kpu ini perlu disampaikan kepada komisi ii dpr dan pemerintah se</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'pillada', 'dan', 'pemilu', 'yang', 'tersebar', 'menurut', 'waktu', 'dan', 'tempat', 'resiko', 'tak', 'terkelolanya', 'lebih', 'rendah', 'seperti', 'pengalaman', 'kit']</t>
+          <t>['rt', 'mujani', 'id', 'ri', 'catatan', 'penting', 'kpu', 'ini', 'perlu', 'disampaikan', 'kepada', 'komisi', 'ii', 'dpr', 'dan', 'pemerintah', 'se']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'mujani', 'id', 'ri', 'catatan', 'penting', 'komisi, pemelihan, umum', 'ini', 'perlu', 'disampaikan', 'kepada', 'komisi', 'ih', 'dewan, perwakilan, rakyat', 'dan', 'pemerintah', 'se']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['mujani', 'pillada', 'pemilu', 'tersebar', 'resiko', 'terkelolanya', 'rendah', 'pengalaman', 'kit']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['mujani', 'pillada', 'milu', 'sebar', 'resiko', 'kelola', 'rendah', 'alam', 'kit']</t>
+          <t>['mujani', 'id', 'ri', 'catatan', 'komisi, pemelihan, umum', 'komisi', 'ih', 'dewan, perwakilan, rakyat', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['mujani', 'id', 'ri', 'catat', 'komisi pemelihan umum', 'komisi', 'ih', 'dewan wakil rakyat', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3125,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17609</v>
+        <v>28377</v>
       </c>
       <c r="C67" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt mujani sebaiknya konflik dikelola dengan mendistribusikannya menurut tempat dan waktu sehingga resiko bahaya dapat ditekan </t>
+          <t>kemunduran demokrasi di dunia sekarang banyak disebabkan oleh pejabatpenguasa yang justeru hasil dari demokrasi itu sendiri ironis</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'mujani', 'sebaiknya', 'konflik', 'dikelola', 'dengan', 'mendistribusikannya', 'menurut', 'tempat', 'dan', 'waktu', 'sehingga', 'resiko', 'bahaya', 'dapat', 'ditekan']</t>
+          <t>['kemunduran', 'demokrasi', 'di', 'dunia', 'sekarang', 'banyak', 'disebabkan', 'oleh', 'pejabatpenguasa', 'yang', 'justeru', 'hasil', 'dari', 'demokrasi', 'itu', 'sendiri', 'ironis']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kemunduran', 'demokrasi', 'di', 'dunia', 'sekarang', 'banyak', 'disebabkan', 'oleh', 'pejabatpenguasa', 'yang', 'justru', 'hasil', 'dari', 'demokrasi', 'itu', 'sendiri', 'ironis']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['mujani', 'konflik', 'dikelola', 'mendistribusikannya', 'resiko', 'bahaya', 'ditekan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['mujani', 'konflik', 'kelola', 'distribusi', 'resiko', 'bahaya', 'tekan']</t>
+          <t>['kemunduran', 'demokrasi', 'dunia', 'disebabkan', 'pejabatpenguasa', 'hasil', 'demokrasi', 'ironis']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['mundur', 'demokrasi', 'dunia', 'sebab', 'pejabatpenguasa', 'hasil', 'demokrasi', 'ironis']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3166,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17610</v>
+        <v>28378</v>
       </c>
       <c r="C68" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>pemilu dan pilpres adalah pelajaran mahal bagi kita kurang terkelola dengan baik banyak korban berjatuhan</t>
+          <t>top barang langka ini</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pemilu', 'dan', 'pilpres', 'adalah', 'pelajaran', 'mahal', 'bagi', 'kita', 'kurang', 'terkelola', 'dengan', 'baik', 'banyak', 'korban', 'berjatuhan']</t>
+          <t>['top', 'barang', 'langka', 'ini']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['top', 'barang', 'langka', 'ini']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['pemilu', 'pilpres', 'pelajaran', 'mahal', 'terkelola', 'korban', 'berjatuhan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['milu', 'pilpres', 'ajar', 'mahal', 'kelola', 'korban', 'jatuh']</t>
+          <t>['top', 'barang', 'langka']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['top', 'barang', 'langka']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3207,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17611</v>
+        <v>28379</v>
       </c>
       <c r="C69" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pillada dan pemilu yang tersebar menurut waktu dan tempat resiko tak terkelolanya lebih rendah seperti pengalama</t>
+          <t>tahapan pemilu itu sekitar tahun pilkada sekitar tahun beban kpu numpuk tak bisa dihindarkan pe</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['pillada', 'dan', 'pemilu', 'yang', 'tersebar', 'menurut', 'waktu', 'dan', 'tempat', 'resiko', 'tak', 'terkelolanya', 'lebih', 'rendah', 'seperti', 'pengalama']</t>
+          <t>['tahapan', 'pemilu', 'itu', 'sekitar', 'tahun', 'pilkada', 'sekitar', 'tahun', 'beban', 'kpu', 'numpuk', 'tak', 'bisa', 'dihindarkan', 'pe']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['tahapan', 'pemilihan, umum', 'itu', 'sekitar', 'tahun', 'pilihan, kepala, daerah', 'sekitar', 'tahun', 'beban', 'komisi, pemelihan, umum', 'menumpuk', 'tak', 'bisa', 'dihindarkan', 'pe']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['pillada', 'pemilu', 'tersebar', 'resiko', 'terkelolanya', 'rendah', 'pengalama']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['pillada', 'milu', 'sebar', 'resiko', 'kelola', 'rendah', 'pengalama']</t>
+          <t>['tahapan', 'pemilihan, umum', 'pilihan, kepala, daerah', 'beban', 'komisi, pemelihan, umum', 'menumpuk', 'dihindarkan', 'pe']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['tahap', 'pilih umum', 'pilih kepala daerah', 'beban', 'komisi pemelihan umum', 'tumpuk', 'hindar', 'pe']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3248,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17612</v>
+        <v>28380</v>
       </c>
       <c r="C70" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>sebaiknya konflik dikelola dengan mendistribusikannya menurut tempat dan waktu sehingga resiko bahaya dapat dite</t>
+          <t>memang saya juga belum faham pertimbangan dasarnnya mengapa pemilu legislatif pilpres dan pilkada harus serentak</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['sebaiknya', 'konflik', 'dikelola', 'dengan', 'mendistribusikannya', 'menurut', 'tempat', 'dan', 'waktu', 'sehingga', 'resiko', 'bahaya', 'dapat', 'dite']</t>
+          <t>['memang', 'saya', 'juga', 'belum', 'faham', 'pertimbangan', 'dasarnnya', 'mengapa', 'pemilu', 'legislatif', 'pilpres', 'dan', 'pilkada', 'harus', 'serentak']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['memang', 'saya', 'juga', 'belum', 'paham', 'pertimbangan', 'dasarnnya', 'mengapa', 'pemilihan, umum', 'legislatif', 'pemilihan, presiden', 'dan', 'pilihan, kepala, daerah', 'harus', 'serentak']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['konflik', 'dikelola', 'mendistribusikannya', 'resiko', 'bahaya', 'dite']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['konflik', 'kelola', 'distribusi', 'resiko', 'bahaya', 'dite']</t>
+          <t>['paham', 'pertimbangan', 'dasarnnya', 'pemilihan, umum', 'legislatif', 'pemilihan, presiden', 'pilihan, kepala, daerah', 'serentak']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['paham', 'timbang', 'dasarnnya', 'pilih umum', 'legislatif', 'pilih presiden', 'pilih kepala daerah', 'serentak']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3289,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17613</v>
+        <v>28381</v>
       </c>
       <c r="C71" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">konflik politik karena perbedaan kepentingan adalah normal yg harus dilakukan adalh mengelolanya supaya tidak </t>
+          <t>rt yang begini juga ciri santri google mereka tidak paham bahwa membela hak sipil suatu kelompok tidak mesti setuju dengan pand</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['konflik', 'politik', 'karena', 'perbedaan', 'kepentingan', 'adalah', 'normal', 'yg', 'harus', 'dilakukan', 'adalh', 'mengelolanya', 'supaya', 'tidak']</t>
+          <t>['rt', 'yang', 'begini', 'juga', 'ciri', 'santri', 'google', 'mereka', 'tidak', 'paham', 'bahwa', 'membela', 'hak', 'sipil', 'suatu', 'kelompok', 'tidak', 'mesti', 'setuju', 'dengan', 'pand']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'yang', 'begini', 'juga', 'ciri', 'santri', 'google', 'mereka', 'tidak', 'paham', 'bahwa', 'membela', 'hak', 'sipil', 'suatu', 'kelompok', 'tidak', 'mesti', 'setuju', 'dengan', 'pand']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['konflik', 'politik', 'perbedaan', 'kepentingan', 'normal', 'adalh', 'mengelolanya']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['konflik', 'politik', 'beda', 'penting', 'normal', 'adalh', 'kelola']</t>
+          <t>['ciri', 'santri', 'google', 'paham', 'membela', 'hak', 'sipil', 'kelompok', 'mesti', 'setuju', 'pand']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['ciri', 'santri', 'google', 'paham', 'bela', 'hak', 'sipil', 'kelompok', 'mesti', 'tuju', 'pand']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3330,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17614</v>
+        <v>28382</v>
       </c>
       <c r="C72" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rt new book by amp bob kaufman is available to read online for free until backsliding democratic regress</t>
+          <t>innalillahi wainna ilaihi rojiun alfatihan utk ayahanda sahabat semoga alharhum khusnul khotimah amin</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rt', 'new', 'book', 'by', 'amp', 'bob', 'kaufman', 'is', 'available', 'to', 'read', 'online', 'for', 'free', 'until', 'backsliding', 'democratic', 'regress']</t>
+          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiun', 'alfatihan', 'utk', 'ayahanda', 'sahabat', 'semoga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiun', 'alfatihan', 'untuk', 'ayahanda', 'sahabat', 'semoga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['new', 'book', 'by', 'bob', 'kaufman', 'is', 'available', 'to', 'read', 'online', 'for', 'free', 'until', 'backsliding', 'democratic', 'regress']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['new', 'book', 'by', 'bob', 'kaufman', 'is', 'available', 'to', 'read', 'online', 'for', 'free', 'until', 'backsliding', 'democratic', 'regress']</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiun', 'alfatihan', 'ayahanda', 'sahabat', 'semoga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wah ini', 'ilaihi', 'rojiun', 'alfatihan', 'ayahanda', 'sahabat', 'moga', 'alharhum', 'khusnul', 'khotimah', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3371,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17615</v>
+        <v>28383</v>
       </c>
       <c r="C73" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>baru tahu almarhumah ibu nunuk nuraini adalah peracik bumbu mie instan kesukaan saya terutama ketika mahasiswa mula</t>
+          <t>alfatihah buat prof firmanzah</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['baru', 'tahu', 'almarhumah', 'ibu', 'nunuk', 'nuraini', 'adalah', 'peracik', 'bumbu', 'mie', 'instan', 'kesukaan', 'saya', 'terutama', 'ketika', 'mahasiswa', 'mula']</t>
+          <t>['alfatihah', 'buat', 'prof', 'firmanzah']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['al, fatihah', 'buat', 'prof', 'firmanzah']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['almarhumah', 'nunuk', 'nuraini', 'peracik', 'bumbu', 'mie', 'instan', 'kesukaan', 'mahasiswa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['almarhumah', 'nunuk', 'nuraini', 'acik', 'bumbu', 'mie', 'instan', 'suka', 'mahasiswa']</t>
+          <t>['al, fatihah', 'prof', 'firmanzah']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['al fatihah', 'prof', 'firmanzah']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3412,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17616</v>
+        <v>28384</v>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>utriza ri trims doktor ayang btw mengadatkan itu apa istiah baru buat saya</t>
+          <t>ya tapi partai cekcok di kpu hingga ga bisa putusan hasil itu kpu nya dari partai memalukan untung kita pun</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['utriza', 'ri', 'trims', 'doktor', 'ayang', 'btw', 'mengadatkan', 'itu', 'apa', 'istiah', 'baru', 'buat', 'saya']</t>
+          <t>['ya', 'tapi', 'partai', 'cekcok', 'di', 'kpu', 'hingga', 'ga', 'bisa', 'putusan', 'hasil', 'itu', 'kpu', 'nya', 'dari', 'partai', 'memalukan', 'untung', 'kita', 'pun']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ya', 'tapi', 'partai', 'cekcok', 'di', 'komisi, pemelihan, umum', 'hingga', 'tidak', 'bisa', 'putusan', 'hasil', 'itu', 'komisi, pemelihan, umum', 'nya', 'dari', 'partai', 'memalukan', 'untung', 'kita', 'pun']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['utriza', 'ri', 'trims', 'doktor', 'ayang', 'btw', 'mengadatkan', 'istiah']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['utriza', 'ri', 'trims', 'doktor', 'ayang', 'btw', 'adat', 'istiah']</t>
+          <t>['partai', 'cekcok', 'komisi, pemelihan, umum', 'putusan', 'hasil', 'komisi, pemelihan, umum', 'partai', 'memalukan', 'untung']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['partai', 'cekcok', 'komisi pemelihan umum', 'putus', 'hasil', 'komisi pemelihan umum', 'partai', 'malu', 'untung']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3453,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17617</v>
+        <v>28385</v>
       </c>
       <c r="C75" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ga rajin sama sekali tapi banyak yang bantu admin itu mereka sangat peduli saya hanya bantu suplly</t>
+          <t>pada pemilu demokratis partai yang masuk senayan tidak ditentukan oleh batasan jumlah perolehan kursi setela</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['ga', 'rajin', 'sama', 'sekali', 'tapi', 'banyak', 'yang', 'bantu', 'admin', 'itu', 'mereka', 'sangat', 'peduli', 'saya', 'hanya', 'bantu', 'suplly']</t>
+          <t>['pada', 'pemilu', 'demokratis', 'partai', 'yang', 'masuk', 'senayan', 'tidak', 'ditentukan', 'oleh', 'batasan', 'jumlah', 'perolehan', 'kursi', 'setela']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pada', 'pemilihan, umum', 'demokratis', 'partai', 'yang', 'masuk', 'senayan', 'tidak', 'ditentukan', 'oleh', 'batasan', 'jumlah', 'perolehan', 'kursi', 'setela']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['rajin', 'bantu', 'admin', 'peduli', 'bantu', 'suplly']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['rajin', 'bantu', 'admin', 'peduli', 'bantu', 'suplly']</t>
+          <t>['pemilihan, umum', 'demokratis', 'partai', 'masuk', 'senayan', 'ditentukan', 'batasan', 'perolehan', 'kursi', 'setela']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['pilih umum', 'demokratis', 'partai', 'masuk', 'senayan', 'tentu', 'batas', 'oleh', 'kursi', 'setela']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3494,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17618</v>
+        <v>28386</v>
       </c>
       <c r="C76" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>prima adi de as ga bis</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['prima', 'adi', 'de', 'as', 'ga', 'bis']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['prima', 'adi', 'de', 'as', 'bis']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['prima', 'adi', 'de', 'as', 'bis']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3535,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17619</v>
+        <v>28387</v>
       </c>
       <c r="C77" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>syukur kl ada perbaikan terutama bagi ya  muda biar lbh produktif punya waktu membaca merenung</t>
+          <t>rt jaga independensi partai politik via mujani</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['syukur', 'kl', 'ada', 'perbaikan', 'terutama', 'bagi', 'ya', 'muda', 'biar', 'lbh', 'produktif', 'punya', 'waktu', 'membaca', 'merenung']</t>
+          <t>['rt', 'jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['syukur', 'kl', 'perbaikan', 'muda', 'lbh', 'produktif', 'membaca', 'merenung']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['syukur', 'kl', 'baik', 'muda', 'lbh', 'produktif', 'baca', 'renung']</t>
+          <t>['jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['jaga', 'independensi', 'partai', 'politik', 'via', 'mujani']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3576,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17620</v>
+        <v>28388</v>
       </c>
       <c r="C78" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>masalah kunosalah satu sebab dunia akademik kita sulit berkembang ga kompetitif lbh prosedural tak sedikit dose</t>
+          <t>rt hello tweep terutama yg tinggal di daerah semarang dan sekitarnya ayah saya sedang memerlukan plasma darah gol  peny</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['masalah', 'kunosalah', 'satu', 'sebab', 'dunia', 'akademik', 'kita', 'sulit', 'berkembang', 'ga', 'kompetitif', 'lbh', 'prosedural', 'tak', 'sedikit', 'dose']</t>
+          <t>['rt', 'hello', 'tweep', 'terutama', 'yg', 'tinggal', 'di', 'daerah', 'semarang', 'dan', 'sekitarnya', 'ayah', 'saya', 'sedang', 'memerlukan', 'plasma', 'darah', 'gol', 'peny']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'halo', 'tweep', 'terutama', 'yang', 'tinggal', 'di', 'daerah', 'semarang', 'dan', 'sekitarnya', 'ayah', 'saya', 'sedang', 'memerlukan', 'plasma', 'darah', 'gol', 'peny']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['kunosalah', 'dunia', 'akademik', 'sulit', 'berkembang', 'kompetitif', 'lbh', 'prosedural', 'dose']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['kunosalah', 'dunia', 'akademik', 'sulit', 'kembang', 'kompetitif', 'lbh', 'prosedural', 'dose']</t>
+          <t>['halo', 'tweep', 'tinggal', 'daerah', 'semarang', 'ayah', 'plasma', 'darah', 'gol', 'peny']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['halo', 'tweep', 'tinggal', 'daerah', 'semarang', 'ayah', 'plasma', 'darah', 'gol', 'peny']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3617,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17621</v>
+        <v>28389</v>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>trims tom anda sudah jadi full profesor di usia sangat muda saya juga beruntung bertemu anda orang</t>
+          <t>ini kantor mbak bukan account pribadi saya</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['trims', 'tom', 'anda', 'sudah', 'jadi', 'full', 'profesor', 'di', 'usia', 'sangat', 'muda', 'saya', 'juga', 'beruntung', 'bertemu', 'anda', 'orang']</t>
+          <t>['ini', 'kantor', 'mbak', 'bukan', 'account', 'pribadi', 'saya']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'kantor', 'mbak', 'bukan', 'account', 'pribadi', 'saya']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['trims', 'tom', 'full', 'profesor', 'usia', 'muda', 'beruntung', 'bertemu', 'orang']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['trims', 'tom', 'full', 'profesor', 'usia', 'muda', 'untung', 'temu', 'orang']</t>
+          <t>['kantor', 'mbak', 'account', 'pribadi']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['kantor', 'mbak', 'account', 'pribadi']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3658,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17622</v>
+        <v>28390</v>
       </c>
       <c r="C80" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dirs mujani makasih gus status saya masih asisten ahli maklum urusan kenaikan pangkat di indonesia </t>
+          <t>mujani ini mbak</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'mujani', 'makasih', 'gus', 'status', 'saya', 'masih', 'asisten', 'ahli', 'maklum', 'urusan', 'kenaikan', 'pangkat', 'di', 'indonesia']</t>
+          <t>['mujani', 'ini', 'mbak']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['mujani', 'ini', 'mbak']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['dirs', 'mujani', 'makasih', 'gus', 'status', 'asisten', 'ahli', 'maklum', 'urusan', 'kenaikan', 'pangkat', 'indonesia']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['dirs', 'mujani', 'makasih', 'gus', 'status', 'asisten', 'ahli', 'maklum', 'urus', 'naik', 'pangkat', 'indonesia']</t>
+          <t>['mujani', 'mbak']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['mujani', 'mbak']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3699,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17623</v>
+        <v>28391</v>
       </c>
       <c r="C81" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kaka ulil</t>
+          <t xml:space="preserve">rt banyak yang bertanya siapa orang dekat pak jokowi yang mau mengambil alih kepemimpinan ahy di demokrat jawaban saya ksp </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['kaka', 'ulil']</t>
+          <t>['rt', 'banyak', 'yang', 'bertanya', 'siapa', 'orang', 'dekat', 'pak', 'jokowi', 'yang', 'mau', 'mengambil', 'alih', 'kepemimpinan', 'ahy', 'di', 'demokrat', 'jawaban', 'saya', 'ksp']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'banyak', 'yang', 'bertanya', 'siapa', 'orang', 'dekat', 'pak', 'jokowi', 'yang', 'mau', 'mengambil', 'alih', 'kepemimpinan', 'agus, harimurti, yudhoyono', 'di', 'demokrat', 'jawaban', 'saya', 'ksp']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['kaka', 'ulil']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['kaka', 'ulil']</t>
+          <t>['orang', 'jokowi', 'mengambil', 'alih', 'kepemimpinan', 'agus, harimurti, yudhoyono', 'demokrat', 'ksp']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['orang', 'jokowi', 'ambil', 'alih', 'pimpin', 'agus harimurti yudhoyono', 'demokrat', 'ksp']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3740,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17624</v>
+        <v>28392</v>
       </c>
       <c r="C82" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt new article in by mujani amp nicholas kuipers contrary to findings from western nations younger bettered</t>
+          <t>kl tak diri ya dimundurkan dari pada opini tak sehat bahwa presiden intervensi internal partai orang</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'new', 'article', 'in', 'by', 'mujani', 'amp', 'nicholas', 'kuipers', 'contrary', 'to', 'findings', 'from', 'western', 'nations', 'younger', 'bettered']</t>
+          <t>['kl', 'tak', 'diri', 'ya', 'dimundurkan', 'dari', 'pada', 'opini', 'tak', 'sehat', 'bahwa', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kalau', 'tak', 'diri', 'ya', 'dimundurkan', 'dari', 'pada', 'opini', 'tak', 'sehat', 'bahwa', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['new', 'article', 'in', 'by', 'mujani', 'nicholas', 'kuipers', 'contrary', 'to', 'findings', 'from', 'western', 'nations', 'younger', 'bettered']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['new', 'article', 'in', 'by', 'mujani', 'nicholas', 'kuipers', 'contrary', 'to', 'findings', 'from', 'western', 'nations', 'younger', 'bettered']</t>
+          <t>['dimundurkan', 'opini', 'sehat', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['mundur', 'opini', 'sehat', 'presiden', 'intervensi', 'internal', 'partai', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3781,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17625</v>
+        <v>28393</v>
       </c>
       <c r="C83" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>no single skocpols work</t>
+          <t>tapi nasi sudah jadi bubur langkah kesatria adalah pak muldoko mengundurkan diri dari ksp untuk menjaga kehormatan</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['no', 'single', 'skocpols', 'work']</t>
+          <t>['tapi', 'nasi', 'sudah', 'jadi', 'bubur', 'langkah', 'kesatria', 'adalah', 'pak', 'muldoko', 'mengundurkan', 'diri', 'dari', 'ksp', 'untuk', 'menjaga', 'kehormatan']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tapi', 'nasi', 'sudah', 'jadi', 'bubur', 'langkah', 'kesatria', 'adalah', 'pak', 'muldoko', 'mengundurkan', 'diri', 'dari', 'ksp', 'untuk', 'menjaga', 'kehormatan']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['no', 'single', 'skocpols', 'work']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['no', 'single', 'skocpols', 'work']</t>
+          <t>['nasi', 'bubur', 'langkah', 'kesatria', 'muldoko', 'mengundurkan', 'ksp', 'menjaga', 'kehormatan']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['nasi', 'bubur', 'langkah', 'kesatria', 'muldoko', 'undur', 'ksp', 'jaga', 'hormat']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3822,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17626</v>
+        <v>28394</v>
       </c>
       <c r="C84" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sama dengan di sini</t>
+          <t>kl pak muldoko mau cawe dg internal demokrat gabung aja dg demokrat pengaruhi kader lainnya untuk ambil alih ke</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['sama', 'dengan', 'di', 'sini']</t>
+          <t>['kl', 'pak', 'muldoko', 'mau', 'cawe', 'dg', 'internal', 'demokrat', 'gabung', 'aja', 'dg', 'demokrat', 'pengaruhi', 'kader', 'lainnya', 'untuk', 'ambil', 'alih', 'ke']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kalau', 'pak', 'muldoko', 'mau', 'cawe', 'dengan', 'internal', 'demokrat', 'gabung', 'saja', 'dengan', 'demokrat', 'pengaruhi', 'kader', 'lainnya', 'untuk', 'ambil', 'alih', 'ke']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['muldoko', 'cawe', 'internal', 'demokrat', 'gabung', 'demokrat', 'pengaruhi', 'kader', 'ambil', 'alih']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['muldoko', 'cawe', 'internal', 'demokrat', 'gabung', 'demokrat', 'pengaruh', 'kader', 'ambil', 'alih']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3863,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17627</v>
+        <v>28395</v>
       </c>
       <c r="C85" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>adi ga semasif nazarudin dan anas dulu masiku aja udah hilang beritanya</t>
+          <t>wow pejabat negara cawe politik internal partai orang kasar pak jendral moeldoko soal isu demokrat jangan gang</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['adi', 'ga', 'semasif', 'nazarudin', 'dan', 'anas', 'dulu', 'masiku', 'aja', 'udah', 'hilang', 'beritanya']</t>
+          <t>['wow', 'pejabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'pak', 'jendral', 'moeldoko', 'soal', 'isu', 'demokrat', 'jangan', 'gang']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['wah', 'pejabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'pak', 'jenderal', 'moeldoko', 'soal', 'isu', 'demokrat', 'jangan', 'gang']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['adi', 'semasif', 'nazarudin', 'anas', 'masiku', 'udah', 'hilang', 'beritanya']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['adi', 'masif', 'nazarudin', 'anas', 'mas', 'udah', 'hilang', 'berita']</t>
+          <t>['pejabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'jenderal', 'moeldoko', 'isu', 'demokrat', 'gang']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['jabat', 'negara', 'cawe', 'politik', 'internal', 'partai', 'orang', 'kasar', 'jenderal', 'moeldoko', 'isu', 'demokrat', 'gang']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3904,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17628</v>
+        <v>28396</v>
       </c>
       <c r="C86" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>adi berapa banyak orang yang tahu dengan isu itu juga menjadi tantangan apakah korupsi menjadi isu utama bagi pemilih umumnya</t>
+          <t>trims gus secara rutin saya mengamati secara nasional berapa banyak yang menggunakan medsos</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['adi', 'berapa', 'banyak', 'orang', 'yang', 'tahu', 'dengan', 'isu', 'itu', 'juga', 'menjadi', 'tantangan', 'apakah', 'korupsi', 'menjadi', 'isu', 'utama', 'bagi', 'pemilih', 'umumnya']</t>
+          <t>['trims', 'gus', 'secara', 'rutin', 'saya', 'mengamati', 'secara', 'nasional', 'berapa', 'banyak', 'yang', 'menggunakan', 'medsos']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['terima, kasih', 'gus', 'secara', 'rutin', 'saya', 'mengamati', 'secara', 'nasional', 'berapa', 'banyak', 'yang', 'menggunakan', 'media, sosial']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['adi', 'orang', 'isu', 'tantangan', 'korupsi', 'isu', 'utama', 'pemilih']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['adi', 'orang', 'isu', 'tantang', 'korupsi', 'isu', 'utama', 'pilih']</t>
+          <t>['terima, kasih', 'gus', 'rutin', 'mengamati', 'nasional', 'media, sosial']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'gus', 'rutin', 'amat', 'nasional', 'media sosial']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3945,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17629</v>
+        <v>28397</v>
       </c>
       <c r="C87" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>adi bisa isu korupsinya cukup terlokalisir ga sehebih nazarudin dan ketum demokrat dulu bagaimanapun</t>
+          <t>berakhirnya demokrasi di myanmar kita mengalami ini dan semoga tak terjadi lagi harus tetap waspada</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['adi', 'bisa', 'isu', 'korupsinya', 'cukup', 'terlokalisir', 'ga', 'sehebih', 'nazarudin', 'dan', 'ketum', 'demokrat', 'dulu', 'bagaimanapun']</t>
+          <t>['berakhirnya', 'demokrasi', 'di', 'myanmar', 'kita', 'mengalami', 'ini', 'dan', 'semoga', 'tak', 'terjadi', 'lagi', 'harus', 'tetap', 'waspada']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['berakhirnya', 'demokrasi', 'di', 'myanmar', 'kita', 'mengalami', 'ini', 'dan', 'semoga', 'tak', 'terjadi', 'lagi', 'harus', 'tetap', 'waspada']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['adi', 'isu', 'korupsinya', 'terlokalisir', 'sehebih', 'nazarudin', 'ketum', 'demokrat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['adi', 'isu', 'korupsi', 'terlokalisir', 'sehebih', 'nazarudin', 'tum', 'demokrat']</t>
+          <t>['demokrasi', 'myanmar', 'mengalami', 'semoga', 'waspada']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['demokrasi', 'myanmar', 'alami', 'moga', 'waspada']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +3986,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17630</v>
+        <v>28398</v>
       </c>
       <c r="C88" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">ada hububgan dukungan pada pasangan presiden dg penilian atas kinerja pemerintah nangani covid </t>
+          <t>basisnya self report di internet mungkin ini sumber perbedaan tapi bedanya besar banget</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['ada', 'hububgan', 'dukungan', 'pada', 'pasangan', 'presiden', 'dg', 'penilian', 'atas', 'kinerja', 'pemerintah', 'nangani', 'covid']</t>
+          <t>['basisnya', 'self', 'report', 'di', 'internet', 'mungkin', 'ini', 'sumber', 'perbedaan', 'tapi', 'bedanya', 'besar', 'banget']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['basisnya', 'self', 'laporan', 'di', 'internet', 'mungkin', 'ini', 'sumber', 'perbedaan', 'tapi', 'bedanya', 'besar', 'banget']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['hububgan', 'dukungan', 'pasangan', 'presiden', 'penilian', 'kinerja', 'pemerintah', 'nangani', 'covid']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['hububgan', 'dukung', 'pasang', 'presiden', 'penilian', 'kerja', 'perintah', 'nangani', 'covid']</t>
+          <t>['basisnya', 'self', 'laporan', 'internet', 'sumber', 'perbedaan', 'bedanya', 'banget']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['basis', 'self', 'lapor', 'internet', 'sumber', 'beda', 'beda', 'banget']</t>
         </is>
       </c>
     </row>
@@ -3599,34 +4027,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17631</v>
+        <v>28399</v>
       </c>
       <c r="C89" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>pola umum menunjukan tidak benar bahwa pr daftar tertutup lebih baik untuk mencegah korupsi korup</t>
+          <t>ya tapi itu besar</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['pola', 'umum', 'menunjukan', 'tidak', 'benar', 'bahwa', 'pr', 'daftar', 'tertutup', 'lebih', 'baik', 'untuk', 'mencegah', 'korupsi', 'korup']</t>
+          <t>['ya', 'tapi', 'itu', 'besar']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['ya', 'tapi', 'itu', 'besar']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['pola', 'menunjukan', 'pr', 'daftar', 'tertutup', 'mencegah', 'korupsi', 'korup']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['pola', 'tunjuk', 'pr', 'daftar', 'tutup', 'cegah', 'korupsi', 'korup']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3635,30 +4068,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17632</v>
+        <v>28400</v>
       </c>
       <c r="C90" t="n">
-        <v>217</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>333</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>beda dengan yang saya punya</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['beda', 'dengan', 'yang', 'saya', 'punya']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['beda', 'dengan', 'yang', 'saya', 'punya']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['beda']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['beda']</t>
         </is>
       </c>
     </row>
@@ -3667,34 +4109,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17633</v>
+        <v>28401</v>
       </c>
       <c r="C91" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>siap</t>
+          <t>beda banget ya</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['siap']</t>
+          <t>['beda', 'banget', 'ya']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['beda', 'banget', 'ya']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['beda', 'banget']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['beda', 'banget']</t>
         </is>
       </c>
     </row>
@@ -3703,34 +4150,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17634</v>
+        <v>28402</v>
       </c>
       <c r="C92" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>boleh bro saya punya hasil kajian tentang ini</t>
+          <t>observasi saya jangkauan twit di indo mandeg di kisaran persen maka apapun isunya krn bas</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['boleh', 'bro', 'saya', 'punya', 'hasil', 'kajian', 'tentang', 'ini']</t>
+          <t>['observasi', 'saya', 'jangkauan', 'twit', 'di', 'indo', 'mandeg', 'di', 'kisaran', 'persen', 'maka', 'apapun', 'isunya', 'krn', 'bas']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['observasi', 'saya', 'jangkauan', 'twit', 'di', 'indonesia', 'mandeg', 'di', 'kisaran', 'persen', 'maka', 'apapun', 'isunya', 'karena', 'bas']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['bro', 'hasil', 'kajian']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['bro', 'hasil', 'kaji']</t>
+          <t>['observasi', 'jangkauan', 'twit', 'indonesia', 'mandeg', 'kisaran', 'persen', 'apapun', 'isunya', 'bas']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['observasi', 'jangkau', 'twit', 'indonesia', 'mandeg', 'kisar', 'persen', 'apa', 'isu', 'bas']</t>
         </is>
       </c>
     </row>
@@ -3739,34 +4191,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17635</v>
+        <v>28403</v>
       </c>
       <c r="C93" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>pola umum menunjukan tidak benar bahwa pr daftar tertutup lebih baik untuk mencegah korupsi korupsi di sebuah nega</t>
+          <t>observasi saya facebook istagram jauh lebih memotret populasi kita dan trendnya makin menguat</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['pola', 'umum', 'menunjukan', 'tidak', 'benar', 'bahwa', 'pr', 'daftar', 'tertutup', 'lebih', 'baik', 'untuk', 'mencegah', 'korupsi', 'korupsi', 'di', 'sebuah', 'nega']</t>
+          <t>['observasi', 'saya', 'facebook', 'istagram', 'jauh', 'lebih', 'memotret', 'populasi', 'kita', 'dan', 'trendnya', 'makin', 'menguat']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['observasi', 'saya', 'facebook', 'istagram', 'jauh', 'lebih', 'memotret', 'populasi', 'kita', 'dan', 'trennya', 'makin', 'menguat']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['pola', 'menunjukan', 'pr', 'daftar', 'tertutup', 'mencegah', 'korupsi', 'korupsi', 'nega']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['pola', 'tunjuk', 'pr', 'daftar', 'tutup', 'cegah', 'korupsi', 'korupsi', 'nega']</t>
+          <t>['observasi', 'facebook', 'istagram', 'memotret', 'populasi', 'trennya', 'menguat']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['observasi', 'facebook', 'istagram', 'potret', 'populasi', 'tren', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -3775,34 +4232,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17636</v>
+        <v>28404</v>
       </c>
       <c r="C94" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>hubungan sistem pemilu dan koripsi</t>
+          <t>yang berbasis facebook liat di mana</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['hubungan', 'sistem', 'pemilu', 'dan', 'koripsi']</t>
+          <t>['yang', 'berbasis', 'facebook', 'liat', 'di', 'mana']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['yang', 'berbasis', 'facebook', 'lihat', 'di', 'mana']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['hubungan', 'sistem', 'pemilu', 'koripsi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['hubung', 'sistem', 'milu', 'koripsi']</t>
+          <t>['berbasis', 'facebook', 'lihat']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['bas', 'facebook', 'lihat']</t>
         </is>
       </c>
     </row>
@@ -3811,34 +4273,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17637</v>
+        <v>28405</v>
       </c>
       <c r="C95" t="n">
-        <v>217</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>dalam sistem plural persaingan antara calon lebih keras lagi pertanyaannta apakah betul siste</t>
-        </is>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['dalam', 'sistem', 'plural', 'persaingan', 'antara', 'calon', 'lebih', 'keras', 'lagi', 'pertanyaannta', 'apakah', 'betul', 'siste']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['sistem', 'plural', 'persaingan', 'calon', 'keras', 'pertanyaannta', 'siste']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['sistem', 'plural', 'saing', 'calon', 'keras', 'pertanyaannta', 'siste']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3847,34 +4310,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17638</v>
+        <v>28406</v>
       </c>
       <c r="C96" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">dan ini mendorong calon mencari uang demgan segala cara termasuk secara ilegal korupsi kl </t>
+          <t>itu basisnya hanya twitter ya mas</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['dan', 'ini', 'mendorong', 'calon', 'mencari', 'uang', 'demgan', 'segala', 'cara', 'termasuk', 'secara', 'ilegal', 'korupsi', 'kl']</t>
+          <t>['itu', 'basisnya', 'hanya', 'twitter', 'ya', 'mas']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['itu', 'basisnya', 'hanya', 'twitter', 'ya', 'mas']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['mendorong', 'calon', 'mencari', 'uang', 'demgan', 'ilegal', 'korupsi', 'kl']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['dorong', 'calon', 'cari', 'uang', 'demgan', 'ilegal', 'korupsi', 'kl']</t>
+          <t>['basisnya', 'twitter', 'mas']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['basis', 'twitter', 'mas']</t>
         </is>
       </c>
     </row>
@@ -3883,34 +4351,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17639</v>
+        <v>28407</v>
       </c>
       <c r="C97" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sementara sistem proporsional dengan daftar calon tertutup closed list pr dipercaya lebih re</t>
+          <t>terlalu lambat un india sejuta sehari prifile sosial ekonomi india ga jauh beda dengan kita ko mereka bisa jauh lebih cepat ya</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sementara', 'sistem', 'proporsional', 'dengan', 'daftar', 'calon', 'tertutup', 'closed', 'list', 'pr', 'dipercaya', 'lebih', 're']</t>
+          <t>['terlalu', 'lambat', 'un', 'india', 'sejuta', 'sehari', 'prifile', 'sosial', 'ekonomi', 'india', 'ga', 'jauh', 'beda', 'dengan', 'kita', 'ko', 'mereka', 'bisa', 'jauh', 'lebih', 'cepat', 'ya']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['terlalu', 'lambat', 'ujian, nasional', 'india', 'sejuta', 'sehari', 'prifile', 'sosial', 'ekonomi', 'india', 'tidak', 'jauh', 'beda', 'dengan', 'kita', 'kok', 'mereka', 'bisa', 'jauh', 'lebih', 'cepat', 'ya']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['sistem', 'proporsional', 'daftar', 'calon', 'tertutup', 'closed', 'list', 'pr', 'dipercaya', 're']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sistem', 'proporsional', 'daftar', 'calon', 'tutup', 'closed', 'list', 'pr', 'percaya', 're']</t>
+          <t>['lambat', 'ujian, nasional', 'india', 'sejuta', 'sehari', 'prifile', 'sosial', 'ekonomi', 'india', 'beda', 'cepat']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['lambat', 'uji nasional', 'india', 'juta', 'hari', 'prifile', 'sosial', 'ekonomi', 'india', 'beda', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -3919,34 +4392,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17640</v>
+        <v>28408</v>
       </c>
       <c r="C98" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>korupsi sering diakitkan dengan sistem politik secara lebih spesifik sistem politik yang dimaksu</t>
+          <t>kalau bisa inginnya sih presiden juga tak dipilih rakyat langsung</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['korupsi', 'sering', 'diakitkan', 'dengan', 'sistem', 'politik', 'secara', 'lebih', 'spesifik', 'sistem', 'politik', 'yang', 'dimaksu']</t>
+          <t>['kalau', 'bisa', 'inginnya', 'sih', 'presiden', 'juga', 'tak', 'dipilih', 'rakyat', 'langsung']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['kalau', 'bisa', 'inginnya', 'sih', 'presiden', 'juga', 'tak', 'dipilih', 'rakyat', 'langsung']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['korupsi', 'diakitkan', 'sistem', 'politik', 'spesifik', 'sistem', 'politik', 'dimaksu']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['korupsi', 'diakitkan', 'sistem', 'politik', 'spesifik', 'sistem', 'politik', 'dimaksu']</t>
+          <t>['inginnya', 'presiden', 'dipilih', 'rakyat', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['ingin', 'presiden', 'pilih', 'rakyat', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -3955,34 +4433,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17641</v>
+        <v>28409</v>
       </c>
       <c r="C99" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bisa dicek bentar</t>
+          <t>kl pemilihan gubernur disatukan ke maka akan ada lebih dari dr total gubernur diganti plt yg ditunjuk pem</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bisa', 'dicek', 'bentar']</t>
+          <t>['kl', 'pemilihan', 'gubernur', 'disatukan', 'ke', 'maka', 'akan', 'ada', 'lebih', 'dari', 'dr', 'total', 'gubernur', 'diganti', 'plt', 'yg', 'ditunjuk', 'pem']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kalau', 'pemilihan', 'gubernur', 'disatukan', 'ke', 'maka', 'akan', 'ada', 'lebih', 'dari', 'dari', 'total', 'gubernur', 'diganti', 'plt', 'yang', 'ditunjuk', 'protein, energy, malnutrition']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['dicek', 'bentar']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['cek', 'bentar']</t>
+          <t>['pemilihan', 'gubernur', 'disatukan', 'total', 'gubernur', 'diganti', 'plt', 'protein, energy, malnutrition']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['pilih', 'gubernur', 'satu', 'total', 'gubernur', 'ganti', 'plt', 'protein energy malnutrition']</t>
         </is>
       </c>
     </row>
@@ -3991,34 +4474,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17642</v>
+        <v>28410</v>
       </c>
       <c r="C100" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>dab gitu mas menarik ada kecenderungan pemimpin nasional merangkak dari daerah bukan dari petinggi partai di jakarta</t>
+          <t>apa tang membuat beda pemilu dan pemilu sebelumnya dan pilkada kenapa makan banyak korban karena</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['dab', 'gitu', 'mas', 'menarik', 'ada', 'kecenderungan', 'pemimpin', 'nasional', 'merangkak', 'dari', 'daerah', 'bukan', 'dari', 'petinggi', 'partai', 'di', 'jakarta']</t>
+          <t>['apa', 'tang', 'membuat', 'beda', 'pemilu', 'dan', 'pemilu', 'sebelumnya', 'dan', 'pilkada', 'kenapa', 'makan', 'banyak', 'korban', 'karena']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['apa', 'tang', 'membuat', 'beda', 'pemilihan, umum', 'dan', 'pemilihan, umum', 'sebelumnya', 'dan', 'pilihan, kepala, daerah', 'kenapa', 'makan', 'banyak', 'korban', 'karena']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['dab', 'gitu', 'mas', 'menarik', 'kecenderungan', 'pemimpin', 'nasional', 'merangkak', 'daerah', 'petinggi', 'partai', 'jakarta']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['dab', 'gitu', 'mas', 'tarik', 'cenderung', 'pimpin', 'nasional', 'rangkak', 'daerah', 'petinggi', 'partai', 'jakarta']</t>
+          <t>['tang', 'beda', 'pemilihan, umum', 'pemilihan, umum', 'pilihan, kepala, daerah', 'makan', 'korban']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['tang', 'beda', 'pilih umum', 'pilih umum', 'pilih kepala daerah', 'makan', 'korban']</t>
         </is>
       </c>
     </row>
@@ -4027,34 +4515,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17643</v>
+        <v>28411</v>
       </c>
       <c r="C101" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>sentimen publik pada pdip sangat baik pada desember ini bahan kajian lebih lanjut</t>
+          <t>petugas pemilu meninggal dan orang sakit ini tak ada presedennya di pemilu kita pilkada kemar</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['sentimen', 'publik', 'pada', 'pdip', 'sangat', 'baik', 'pada', 'desember', 'ini', 'bahan', 'kajian', 'lebih', 'lanjut']</t>
+          <t>['petugas', 'pemilu', 'meninggal', 'dan', 'orang', 'sakit', 'ini', 'tak', 'ada', 'presedennya', 'di', 'pemilu', 'kita', 'pilkada', 'kemar']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['petugas', 'pemilihan, umum', 'meninggal', 'dan', 'orang', 'sakit', 'ini', 'tak', 'ada', 'presedennya', 'di', 'pemilihan, umum', 'kita', 'pilihan, kepala, daerah', 'kemar']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['sentimen', 'publik', 'pdip', 'desember', 'bahan', 'kajian']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['sentimen', 'publik', 'pdip', 'desember', 'bahan', 'kaji']</t>
+          <t>['petugas', 'pemilihan, umum', 'meninggal', 'orang', 'sakit', 'presedennya', 'pemilihan, umum', 'pilihan, kepala, daerah', 'kemar']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['tugas', 'pilih umum', 'tinggal', 'orang', 'sakit', 'preseden', 'pilih umum', 'pilih kepala daerah', 'mar']</t>
         </is>
       </c>
     </row>
